--- a/architecture.xlsx
+++ b/architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LinuxWorkspace\CA-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45A86C6-5A88-4245-A4C7-E4698D8343F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A01FA9E-734A-43B7-A1EA-6871EB75C01C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A71FEF40-2F3C-4764-9CBE-BCE2E5ABACF9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A71FEF40-2F3C-4764-9CBE-BCE2E5ABACF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -63,8 +67,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,6 +834,753 @@
 </dgm:colorsDef>
 </file>
 
+<file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
 <file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
@@ -888,7 +1640,1412 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-GB"/>
-            <a:t>txt fields</a:t>
+            <a:t>8 x txt fields</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{760C9A88-7FE2-4D6E-8362-70599A5E176B}" type="parTrans" cxnId="{2A38C0C4-6E9D-4ABA-8675-730EF7AEF33B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{38CCA815-07A4-45DE-A70D-FC3338C83026}" type="sibTrans" cxnId="{2A38C0C4-6E9D-4ABA-8675-730EF7AEF33B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7450E800-359D-4E96-B6FD-540BD0E7A374}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>extraction m</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7353AFA1-15F3-4F00-9FA2-75575716ADEE}" type="parTrans" cxnId="{2FE7CFFE-C5A8-48B4-912F-BC7696D3B20C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8FE576BF-CEA5-4EEA-A89C-33A298DA6679}" type="sibTrans" cxnId="{2FE7CFFE-C5A8-48B4-912F-BC7696D3B20C}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5A7DAEE0-01A1-4D9D-8EFC-F32EFD0BB449}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>calculate btn</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A16E41B2-5488-40AE-A0CF-FE736B205803}" type="parTrans" cxnId="{A516656D-80D6-4867-9AF7-81ACE258EA7F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{925106F7-2C49-48DE-B342-8BDA4ADA7906}" type="sibTrans" cxnId="{A516656D-80D6-4867-9AF7-81ACE258EA7F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{971BD098-BABE-481C-B977-225E18976EE6}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>desc tags</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4D9CFF37-AF00-4799-A9FC-B6F434F1BB17}" type="parTrans" cxnId="{CEE48AB5-AF75-41F0-B0B2-0B5652716615}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FF84429F-F610-45C1-AA1A-082A69BA7DB3}" type="sibTrans" cxnId="{CEE48AB5-AF75-41F0-B0B2-0B5652716615}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>processing m</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{60E9B284-392D-4326-989E-E26884CD887A}" type="parTrans" cxnId="{DF7F73CF-CF6C-4D0A-916C-B6EC1BC2618E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FFD914F0-3351-401D-8B5F-54C5ED7F0A01}" type="sibTrans" cxnId="{DF7F73CF-CF6C-4D0A-916C-B6EC1BC2618E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{774072D0-931C-49F4-9067-EE0F12F706A5}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Vs m</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{07011309-74CE-4D91-A9E5-8726B3BDA4E4}" type="parTrans" cxnId="{29CDA52E-C429-4B55-A61F-EE03A923B56A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C11254D7-0BF0-4E95-92C4-9DED911BDBD5}" type="sibTrans" cxnId="{29CDA52E-C429-4B55-A61F-EE03A923B56A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{60EE2A07-C51D-48C8-8929-C93A64AB8387}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Vc m</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{465B3217-C6AF-4BDB-B88A-0647A76C0B38}" type="parTrans" cxnId="{8849D231-624A-4717-AD2C-A5AAEF39B751}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A01DE0E3-355C-42AD-B0F7-D5452F1DF6B5}" type="sibTrans" cxnId="{8849D231-624A-4717-AD2C-A5AAEF39B751}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1DD8FAED-C655-47B8-B424-497E2EE3C199}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Vr m</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{012004B0-C49A-4F0A-91D2-AFB925B4F235}" type="parTrans" cxnId="{32C39D33-09A7-4685-A7B7-CF1E1765DBC0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D72E5133-B1A9-4EB2-9191-7310F34A5730}" type="sibTrans" cxnId="{32C39D33-09A7-4685-A7B7-CF1E1765DBC0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CC4960BD-C666-4AC7-99E1-48D42476C162}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>Xc m</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F129DEAC-BED3-416E-BC5D-C9CBCA0F4740}" type="parTrans" cxnId="{8C0844F6-2DA5-4251-828E-FD32A0350102}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E8120E06-B302-4D7E-8778-593685A416F5}" type="sibTrans" cxnId="{8C0844F6-2DA5-4251-828E-FD32A0350102}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{87E61118-D386-430A-B384-6C00FBDBF7E5}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600"/>
+            <a:t>XL m</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{24A54765-A882-4BC9-95BE-41A480195D90}" type="parTrans" cxnId="{4B64E76A-05CF-4351-A6F9-17C5CEFBD759}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CBE0E7EE-A58B-45A3-B640-40D746858DE8}" type="sibTrans" cxnId="{4B64E76A-05CF-4351-A6F9-17C5CEFBD759}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4F8B6245-9BB5-4A7C-8F72-96357217B8C8}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600"/>
+            <a:t>Z m</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7AD76085-1EF7-4FA0-AAF7-94E906B86D38}" type="parTrans" cxnId="{011915FE-BD37-400C-AAAA-9E02FC2ED2A0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{934F3F4E-782B-432C-B5A0-53C23057E7ED}" type="sibTrans" cxnId="{011915FE-BD37-400C-AAAA-9E02FC2ED2A0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A4AB7E66-835E-4A75-9365-21D08A9C85AE}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600"/>
+            <a:t>R m</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{63D6B117-ACA3-447B-A1EA-540F51377766}" type="parTrans" cxnId="{8CCEBEE4-52B9-4301-A478-8C943BD745B2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{49FAB0F9-76E5-4465-8DFD-DB12FB45FB13}" type="sibTrans" cxnId="{8CCEBEE4-52B9-4301-A478-8C943BD745B2}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3D3769D5-BA0C-4F40-AA99-6C329B9E0D49}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="el-GR" sz="600" b="0" i="0"/>
+            <a:t>θ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600" b="0" i="0"/>
+            <a:t> m</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="600" b="0"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{55159D8C-2B4A-41DE-9414-FFD423A02BFC}" type="parTrans" cxnId="{4531FCFA-227C-4F4D-86AD-5CB4072C4F34}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DBC4DB08-D7C9-467D-9C4D-A1396EE9DB48}" type="sibTrans" cxnId="{4531FCFA-227C-4F4D-86AD-5CB4072C4F34}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AD586799-4B48-4CE3-BF36-278A0A6ABFDF}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>msg box (invisible)</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" type="parTrans" cxnId="{9F41F160-A227-4DD2-BFB9-A055EBC859BB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E8EB4B71-DB3F-4B08-A795-9E486CABF34B}" type="sibTrans" cxnId="{9F41F160-A227-4DD2-BFB9-A055EBC859BB}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>output UI</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5599AAC5-FFAC-4FF6-9300-AC0D471F0CCE}" type="parTrans" cxnId="{27E5AE0A-5069-4F41-A8FF-508BE1F9DE4A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BEF3F1D2-CD06-41B7-A929-91A5EF7E6329}" type="sibTrans" cxnId="{27E5AE0A-5069-4F41-A8FF-508BE1F9DE4A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{50D9A437-ECC0-44A0-BC2D-F6038DB13C70}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>phasor diagram</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6E3324DF-5EEC-41CB-88D2-3FF47FF29D84}" type="parTrans" cxnId="{EE1EB31A-4534-4C55-96D2-6B5722E20B73}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FCB1854A-8C53-40CF-8EC1-C4B8A939F42B}" type="sibTrans" cxnId="{EE1EB31A-4534-4C55-96D2-6B5722E20B73}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{98D9F6E5-E26E-4ECD-AF1E-78747923D593}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600" b="0" i="0"/>
+            <a:t>f </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600" b="0"/>
+            <a:t>m</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DC5F5DAA-B2D2-49D2-A241-46164D7204B1}" type="parTrans" cxnId="{F6BECF92-320B-41C7-B585-E1946C43729B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{320440E0-5AD8-4723-9DA6-5F8751F3E8B2}" type="sibTrans" cxnId="{F6BECF92-320B-41C7-B585-E1946C43729B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{83F66FF6-18EF-47BC-9A36-B67FAADDABF4}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600" b="0"/>
+            <a:t>L m</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{865A5AE6-6832-4106-B84D-139887C06B13}" type="parTrans" cxnId="{DEFA7718-B47C-46DC-87EA-7403B462EF1B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C91E1A08-CD16-46CB-ADAF-00D67C169D74}" type="sibTrans" cxnId="{DEFA7718-B47C-46DC-87EA-7403B462EF1B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E26F0B5B-B76B-417C-B5A4-CBDE42890889}">
+      <dgm:prSet phldrT="[Text]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600" b="0"/>
+            <a:t>C m</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E02AEED5-C662-48A4-9C36-9FB85DB2E1B7}" type="parTrans" cxnId="{C126EB1C-C460-41E8-AEAD-1D6D08F181F0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B08AB633-7135-4D64-9798-F1BDD7B42573}" type="sibTrans" cxnId="{C126EB1C-C460-41E8-AEAD-1D6D08F181F0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{331195D8-EA2E-4292-B8CA-2085B689B10C}" type="pres">
+      <dgm:prSet presAssocID="{5E2F1FB8-F258-4D56-AFCA-D1289C6DC632}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6C1E8AD3-6104-41DA-85F5-EF61CA59BC98}" type="pres">
+      <dgm:prSet presAssocID="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" presName="root1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9DDA283B-EA8E-405C-BD97-E44435EB9EFA}" type="pres">
+      <dgm:prSet presAssocID="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" type="pres">
+      <dgm:prSet presAssocID="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" presName="level2hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CF0423C4-6EA4-41F9-A046-4D99EB0124E5}" type="pres">
+      <dgm:prSet presAssocID="{760C9A88-7FE2-4D6E-8362-70599A5E176B}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A34C8EF8-5430-4305-B966-B2F00A8211FB}" type="pres">
+      <dgm:prSet presAssocID="{760C9A88-7FE2-4D6E-8362-70599A5E176B}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EA5474BA-2DFB-4BE9-B8D3-7C81D624A1BC}" type="pres">
+      <dgm:prSet presAssocID="{F8362600-2B5C-44DF-AC81-D1FB53879996}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ECEFD72E-1A98-4AF9-85ED-9B48C5F1C2DA}" type="pres">
+      <dgm:prSet presAssocID="{F8362600-2B5C-44DF-AC81-D1FB53879996}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{863A882F-8C14-45DF-B275-83D8DF56CA31}" type="pres">
+      <dgm:prSet presAssocID="{F8362600-2B5C-44DF-AC81-D1FB53879996}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3A2AB094-DEA9-483B-AF68-D6ADFFAB19D9}" type="pres">
+      <dgm:prSet presAssocID="{7353AFA1-15F3-4F00-9FA2-75575716ADEE}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6AFE6393-E175-4029-B5E8-5A4ED9713706}" type="pres">
+      <dgm:prSet presAssocID="{7353AFA1-15F3-4F00-9FA2-75575716ADEE}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FA3C6296-FCE3-4261-B73F-C82DD528BA54}" type="pres">
+      <dgm:prSet presAssocID="{7450E800-359D-4E96-B6FD-540BD0E7A374}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F65D3CFB-6315-4F9C-A94B-A1BD647B8A96}" type="pres">
+      <dgm:prSet presAssocID="{7450E800-359D-4E96-B6FD-540BD0E7A374}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{16083C88-AB81-4158-8AF6-2F6F990707CE}" type="pres">
+      <dgm:prSet presAssocID="{7450E800-359D-4E96-B6FD-540BD0E7A374}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B9967B85-1A92-4A41-BDE3-09E17DA221DB}" type="pres">
+      <dgm:prSet presAssocID="{A16E41B2-5488-40AE-A0CF-FE736B205803}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{90A8264F-505A-42CC-B284-E5BE45EDBCD9}" type="pres">
+      <dgm:prSet presAssocID="{A16E41B2-5488-40AE-A0CF-FE736B205803}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1DC29C37-8365-4983-AEE6-052C192D5D92}" type="pres">
+      <dgm:prSet presAssocID="{5A7DAEE0-01A1-4D9D-8EFC-F32EFD0BB449}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BF2A56C9-9EEA-4DF3-80BE-1BF9131888D0}" type="pres">
+      <dgm:prSet presAssocID="{5A7DAEE0-01A1-4D9D-8EFC-F32EFD0BB449}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FB0409F2-8BE2-465D-A07C-5392EE5F4D58}" type="pres">
+      <dgm:prSet presAssocID="{5A7DAEE0-01A1-4D9D-8EFC-F32EFD0BB449}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F325E4E-94E1-41F0-8A0B-871F31007CAB}" type="pres">
+      <dgm:prSet presAssocID="{60E9B284-392D-4326-989E-E26884CD887A}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{895EE1D3-11B0-46AC-89E1-3C8C71E5E752}" type="pres">
+      <dgm:prSet presAssocID="{60E9B284-392D-4326-989E-E26884CD887A}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B23810ED-7261-4E24-9A69-7ED505F4E1C8}" type="pres">
+      <dgm:prSet presAssocID="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2F617C8C-E497-4C82-A5E3-B207B6A80718}" type="pres">
+      <dgm:prSet presAssocID="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" type="pres">
+      <dgm:prSet presAssocID="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FD0CB378-ADA7-49C3-82E0-E691B4DA503A}" type="pres">
+      <dgm:prSet presAssocID="{07011309-74CE-4D91-A9E5-8726B3BDA4E4}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2493BEAA-53CB-4A0F-984C-AC09B1FC9A3A}" type="pres">
+      <dgm:prSet presAssocID="{07011309-74CE-4D91-A9E5-8726B3BDA4E4}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FC9D3BB3-97C9-4D6B-9DE3-C146C09C2D5B}" type="pres">
+      <dgm:prSet presAssocID="{774072D0-931C-49F4-9067-EE0F12F706A5}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A75D6516-48A3-4FAB-96AE-57D7C936C49C}" type="pres">
+      <dgm:prSet presAssocID="{774072D0-931C-49F4-9067-EE0F12F706A5}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{02E94EDA-036A-4089-84E3-4D8E0C3E4BF3}" type="pres">
+      <dgm:prSet presAssocID="{774072D0-931C-49F4-9067-EE0F12F706A5}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0BDE80F7-B911-4899-B224-784C65367BED}" type="pres">
+      <dgm:prSet presAssocID="{465B3217-C6AF-4BDB-B88A-0647A76C0B38}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FD989055-DF30-47A4-936F-D6FE54FB1C16}" type="pres">
+      <dgm:prSet presAssocID="{465B3217-C6AF-4BDB-B88A-0647A76C0B38}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3C66D365-8E0F-48FD-A3DD-D078E3E643D6}" type="pres">
+      <dgm:prSet presAssocID="{60EE2A07-C51D-48C8-8929-C93A64AB8387}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{956AC369-2A6E-4E5C-95B1-CAB1BF8A9609}" type="pres">
+      <dgm:prSet presAssocID="{60EE2A07-C51D-48C8-8929-C93A64AB8387}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8657534E-9286-4CA1-ABD0-E25EBF815485}" type="pres">
+      <dgm:prSet presAssocID="{60EE2A07-C51D-48C8-8929-C93A64AB8387}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4739358B-3287-4C11-8CD3-C27466B7EE2A}" type="pres">
+      <dgm:prSet presAssocID="{012004B0-C49A-4F0A-91D2-AFB925B4F235}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{80B136B6-8FDF-434D-9D8F-8BC11A3BD369}" type="pres">
+      <dgm:prSet presAssocID="{012004B0-C49A-4F0A-91D2-AFB925B4F235}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C596501C-E674-4C3E-9EE5-7EAA013FE51D}" type="pres">
+      <dgm:prSet presAssocID="{1DD8FAED-C655-47B8-B424-497E2EE3C199}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FD0EC4D4-D97A-4B61-81E5-1C3DE85F8363}" type="pres">
+      <dgm:prSet presAssocID="{1DD8FAED-C655-47B8-B424-497E2EE3C199}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{50DDF4BD-A6C4-44C6-BF29-65A9086365E1}" type="pres">
+      <dgm:prSet presAssocID="{1DD8FAED-C655-47B8-B424-497E2EE3C199}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{430244D7-2332-4438-A1DB-8D338C935A93}" type="pres">
+      <dgm:prSet presAssocID="{F129DEAC-BED3-416E-BC5D-C9CBCA0F4740}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9343C0C4-85E1-4411-9DB9-40F643957A8B}" type="pres">
+      <dgm:prSet presAssocID="{F129DEAC-BED3-416E-BC5D-C9CBCA0F4740}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1175A0F3-92FF-4DC2-858D-1AD5E2EB9C3F}" type="pres">
+      <dgm:prSet presAssocID="{CC4960BD-C666-4AC7-99E1-48D42476C162}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{928D2FA1-AA64-4B72-81C9-0B3AC0841CAB}" type="pres">
+      <dgm:prSet presAssocID="{CC4960BD-C666-4AC7-99E1-48D42476C162}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{452098D1-8275-4D91-9E4E-DC6BFD8038C7}" type="pres">
+      <dgm:prSet presAssocID="{CC4960BD-C666-4AC7-99E1-48D42476C162}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CFD06B68-70DA-440A-A7FD-E75A3D5E9B7B}" type="pres">
+      <dgm:prSet presAssocID="{24A54765-A882-4BC9-95BE-41A480195D90}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E730969C-2265-47C8-BF70-783712BC988C}" type="pres">
+      <dgm:prSet presAssocID="{24A54765-A882-4BC9-95BE-41A480195D90}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{26A65750-38C9-4896-8E70-F299B452D308}" type="pres">
+      <dgm:prSet presAssocID="{87E61118-D386-430A-B384-6C00FBDBF7E5}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4BED9D2E-3146-42D2-8C49-ACA43DAC751A}" type="pres">
+      <dgm:prSet presAssocID="{87E61118-D386-430A-B384-6C00FBDBF7E5}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AB350BC6-BEA0-4FEC-A6EB-1088F422C200}" type="pres">
+      <dgm:prSet presAssocID="{87E61118-D386-430A-B384-6C00FBDBF7E5}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B67A0ECE-C1E5-4448-9B63-3D64385F3EAB}" type="pres">
+      <dgm:prSet presAssocID="{7AD76085-1EF7-4FA0-AAF7-94E906B86D38}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{62FD03F3-0938-41E5-8A6B-A3DEC7E5C116}" type="pres">
+      <dgm:prSet presAssocID="{7AD76085-1EF7-4FA0-AAF7-94E906B86D38}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1A595C5E-F392-4885-A80E-9F677CCCB9F0}" type="pres">
+      <dgm:prSet presAssocID="{4F8B6245-9BB5-4A7C-8F72-96357217B8C8}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D8A48346-CB8B-4E62-9DF1-AFFBDD643CA3}" type="pres">
+      <dgm:prSet presAssocID="{4F8B6245-9BB5-4A7C-8F72-96357217B8C8}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5328B1D1-5794-4BCF-8922-58AD07B9D662}" type="pres">
+      <dgm:prSet presAssocID="{4F8B6245-9BB5-4A7C-8F72-96357217B8C8}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CD5258AE-490E-4C9F-9FE1-E4564DF87772}" type="pres">
+      <dgm:prSet presAssocID="{63D6B117-ACA3-447B-A1EA-540F51377766}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{27A405A8-D3E3-42BA-AEC5-1CCA5114A729}" type="pres">
+      <dgm:prSet presAssocID="{63D6B117-ACA3-447B-A1EA-540F51377766}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CF110489-93EB-4AA6-A0C2-488C541681C6}" type="pres">
+      <dgm:prSet presAssocID="{A4AB7E66-835E-4A75-9365-21D08A9C85AE}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C68D3D45-5D23-4C21-8B1A-8E986FE4B026}" type="pres">
+      <dgm:prSet presAssocID="{A4AB7E66-835E-4A75-9365-21D08A9C85AE}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EE2C52F6-949F-42FB-9CC5-2C8ADD942246}" type="pres">
+      <dgm:prSet presAssocID="{A4AB7E66-835E-4A75-9365-21D08A9C85AE}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BD0D69DF-C381-4750-B5B5-FBC72D11641A}" type="pres">
+      <dgm:prSet presAssocID="{55159D8C-2B4A-41DE-9414-FFD423A02BFC}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E36FC568-3D5D-4143-B0E1-9DDB1FA6F5AE}" type="pres">
+      <dgm:prSet presAssocID="{55159D8C-2B4A-41DE-9414-FFD423A02BFC}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E01BBCEC-9586-435C-BD57-3CC212B981CB}" type="pres">
+      <dgm:prSet presAssocID="{3D3769D5-BA0C-4F40-AA99-6C329B9E0D49}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{34F2B706-66E1-4261-B79A-DCC4C44B1628}" type="pres">
+      <dgm:prSet presAssocID="{3D3769D5-BA0C-4F40-AA99-6C329B9E0D49}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5D569A14-F734-42CD-A2BA-14B586A6BC93}" type="pres">
+      <dgm:prSet presAssocID="{3D3769D5-BA0C-4F40-AA99-6C329B9E0D49}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AC6C9236-E66E-4102-ABE3-547329D6A2B9}" type="pres">
+      <dgm:prSet presAssocID="{DC5F5DAA-B2D2-49D2-A241-46164D7204B1}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5995C0E6-948A-4BFE-B0A2-C9904F2AA0F4}" type="pres">
+      <dgm:prSet presAssocID="{DC5F5DAA-B2D2-49D2-A241-46164D7204B1}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3FDE373D-D589-4B20-920B-213CACCC67BC}" type="pres">
+      <dgm:prSet presAssocID="{98D9F6E5-E26E-4ECD-AF1E-78747923D593}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{750598CE-BC27-458B-92A4-2D17B544DE63}" type="pres">
+      <dgm:prSet presAssocID="{98D9F6E5-E26E-4ECD-AF1E-78747923D593}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{139D789C-0AA3-46C3-9962-90C51EC08CC2}" type="pres">
+      <dgm:prSet presAssocID="{98D9F6E5-E26E-4ECD-AF1E-78747923D593}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AB4D3431-6B25-4D2F-8546-DE62B2BBA405}" type="pres">
+      <dgm:prSet presAssocID="{865A5AE6-6832-4106-B84D-139887C06B13}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C16E6F01-FE5B-4BCA-BDDD-E01C71068408}" type="pres">
+      <dgm:prSet presAssocID="{865A5AE6-6832-4106-B84D-139887C06B13}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3D64ECF1-4DD5-44C6-92EE-7A71E3B0B8E6}" type="pres">
+      <dgm:prSet presAssocID="{83F66FF6-18EF-47BC-9A36-B67FAADDABF4}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C25F03EC-7C91-40EA-A091-293C245140A3}" type="pres">
+      <dgm:prSet presAssocID="{83F66FF6-18EF-47BC-9A36-B67FAADDABF4}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{052BFFBF-AC13-4D3A-AA70-AB3FDCB53E26}" type="pres">
+      <dgm:prSet presAssocID="{83F66FF6-18EF-47BC-9A36-B67FAADDABF4}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CCC0EF18-43BD-4634-BCA3-8467968FA7AC}" type="pres">
+      <dgm:prSet presAssocID="{E02AEED5-C662-48A4-9C36-9FB85DB2E1B7}" presName="conn2-1" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8DBE3731-9061-4382-8B66-3AC2E0DBB02B}" type="pres">
+      <dgm:prSet presAssocID="{E02AEED5-C662-48A4-9C36-9FB85DB2E1B7}" presName="connTx" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="11"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3D0ABA1B-93AF-42FA-95D7-F258B3AAC490}" type="pres">
+      <dgm:prSet presAssocID="{E26F0B5B-B76B-417C-B5A4-CBDE42890889}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{83C329AA-6184-4F18-A2BB-F27EE589843C}" type="pres">
+      <dgm:prSet presAssocID="{E26F0B5B-B76B-417C-B5A4-CBDE42890889}" presName="LevelTwoTextNode" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="11">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{515275E2-922E-49FF-A61B-7AF1B9253355}" type="pres">
+      <dgm:prSet presAssocID="{E26F0B5B-B76B-417C-B5A4-CBDE42890889}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{099D3634-B318-4F46-AE83-B08EE3684A62}" type="pres">
+      <dgm:prSet presAssocID="{4D9CFF37-AF00-4799-A9FC-B6F434F1BB17}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7AF238F0-EF86-4FA3-9A49-D82FEC3695B8}" type="pres">
+      <dgm:prSet presAssocID="{4D9CFF37-AF00-4799-A9FC-B6F434F1BB17}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{56D10059-BFD1-4FAB-9440-55EC41495092}" type="pres">
+      <dgm:prSet presAssocID="{971BD098-BABE-481C-B977-225E18976EE6}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{78E7DD40-6DD8-4A4B-8D8E-B14BD272B53E}" type="pres">
+      <dgm:prSet presAssocID="{971BD098-BABE-481C-B977-225E18976EE6}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1294FCC5-807B-4926-B2E2-5A1282AEE3FE}" type="pres">
+      <dgm:prSet presAssocID="{971BD098-BABE-481C-B977-225E18976EE6}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}" type="pres">
+      <dgm:prSet presAssocID="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{197AAD30-AF83-4EF0-85BB-82B74B47AD5D}" type="pres">
+      <dgm:prSet presAssocID="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{24E6EB68-1BC0-40BF-BB7C-725CEFD49232}" type="pres">
+      <dgm:prSet presAssocID="{AD586799-4B48-4CE3-BF36-278A0A6ABFDF}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E746D0F2-3E36-483D-B695-567907677C18}" type="pres">
+      <dgm:prSet presAssocID="{AD586799-4B48-4CE3-BF36-278A0A6ABFDF}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5" custLinFactX="38762" custLinFactNeighborX="100000" custLinFactNeighborY="1802">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CDD74AEF-7834-416A-801E-D9AB50BD76C6}" type="pres">
+      <dgm:prSet presAssocID="{AD586799-4B48-4CE3-BF36-278A0A6ABFDF}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E5C7F18F-410B-4745-9D47-29DDA5E34F22}" type="pres">
+      <dgm:prSet presAssocID="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}" presName="root1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{09CF1D3D-01D5-40F8-BEA1-801347EF2FCB}" type="pres">
+      <dgm:prSet presAssocID="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="1" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AE5A4F71-F63E-45FD-A6DC-F422E6F5291F}" type="pres">
+      <dgm:prSet presAssocID="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}" presName="level2hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2AFEE7C1-EF54-48D3-9619-231B57DFCA60}" type="pres">
+      <dgm:prSet presAssocID="{6E3324DF-5EEC-41CB-88D2-3FF47FF29D84}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CB0AA845-0864-43CB-A7EE-E121D705DD81}" type="pres">
+      <dgm:prSet presAssocID="{6E3324DF-5EEC-41CB-88D2-3FF47FF29D84}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FAA56CAA-09CE-41A7-A0AB-5153005983A9}" type="pres">
+      <dgm:prSet presAssocID="{50D9A437-ECC0-44A0-BC2D-F6038DB13C70}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C108176B-E738-4704-AF28-F6528C67536F}" type="pres">
+      <dgm:prSet presAssocID="{50D9A437-ECC0-44A0-BC2D-F6038DB13C70}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{107C48B9-DCD1-4582-AE16-86EFFA7F9C0B}" type="pres">
+      <dgm:prSet presAssocID="{50D9A437-ECC0-44A0-BC2D-F6038DB13C70}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{7A77C808-FBBE-4295-B12E-73B6131207CC}" type="presOf" srcId="{07011309-74CE-4D91-A9E5-8726B3BDA4E4}" destId="{2493BEAA-53CB-4A0F-984C-AC09B1FC9A3A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{27E5AE0A-5069-4F41-A8FF-508BE1F9DE4A}" srcId="{5E2F1FB8-F258-4D56-AFCA-D1289C6DC632}" destId="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}" srcOrd="1" destOrd="0" parTransId="{5599AAC5-FFAC-4FF6-9300-AC0D471F0CCE}" sibTransId="{BEF3F1D2-CD06-41B7-A929-91A5EF7E6329}"/>
+    <dgm:cxn modelId="{DA28C210-E04C-4F2B-A325-EA68B7DB87DB}" type="presOf" srcId="{465B3217-C6AF-4BDB-B88A-0647A76C0B38}" destId="{0BDE80F7-B911-4899-B224-784C65367BED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6F23DB11-2F27-4A2C-921C-BE761368FED4}" type="presOf" srcId="{1DD8FAED-C655-47B8-B424-497E2EE3C199}" destId="{FD0EC4D4-D97A-4B61-81E5-1C3DE85F8363}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ED0CA012-1894-46FB-B784-B64B1D0F3AF2}" type="presOf" srcId="{A16E41B2-5488-40AE-A0CF-FE736B205803}" destId="{B9967B85-1A92-4A41-BDE3-09E17DA221DB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{64B0B313-47AB-47CA-A4A0-9FD8ECC6AED4}" type="presOf" srcId="{012004B0-C49A-4F0A-91D2-AFB925B4F235}" destId="{4739358B-3287-4C11-8CD3-C27466B7EE2A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FD5BB513-60BE-4BEB-8236-A9A6579561AB}" type="presOf" srcId="{55159D8C-2B4A-41DE-9414-FFD423A02BFC}" destId="{BD0D69DF-C381-4750-B5B5-FBC72D11641A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3BD25315-072B-41C6-8BA6-4B631B840C8E}" type="presOf" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{2F617C8C-E497-4C82-A5E3-B207B6A80718}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DEFA7718-B47C-46DC-87EA-7403B462EF1B}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{83F66FF6-18EF-47BC-9A36-B67FAADDABF4}" srcOrd="9" destOrd="0" parTransId="{865A5AE6-6832-4106-B84D-139887C06B13}" sibTransId="{C91E1A08-CD16-46CB-ADAF-00D67C169D74}"/>
+    <dgm:cxn modelId="{EE1EB31A-4534-4C55-96D2-6B5722E20B73}" srcId="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}" destId="{50D9A437-ECC0-44A0-BC2D-F6038DB13C70}" srcOrd="0" destOrd="0" parTransId="{6E3324DF-5EEC-41CB-88D2-3FF47FF29D84}" sibTransId="{FCB1854A-8C53-40CF-8EC1-C4B8A939F42B}"/>
+    <dgm:cxn modelId="{C126EB1C-C460-41E8-AEAD-1D6D08F181F0}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{E26F0B5B-B76B-417C-B5A4-CBDE42890889}" srcOrd="10" destOrd="0" parTransId="{E02AEED5-C662-48A4-9C36-9FB85DB2E1B7}" sibTransId="{B08AB633-7135-4D64-9798-F1BDD7B42573}"/>
+    <dgm:cxn modelId="{FA30ED1E-4E3B-47A9-8AAB-9A104FADD788}" type="presOf" srcId="{865A5AE6-6832-4106-B84D-139887C06B13}" destId="{AB4D3431-6B25-4D2F-8546-DE62B2BBA405}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0320C725-49FA-4C1B-8DCC-3BD23CF61333}" type="presOf" srcId="{CC4960BD-C666-4AC7-99E1-48D42476C162}" destId="{928D2FA1-AA64-4B72-81C9-0B3AC0841CAB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F2431326-2A0C-4C4F-AC1F-EB5AAA3B4C48}" type="presOf" srcId="{F8362600-2B5C-44DF-AC81-D1FB53879996}" destId="{ECEFD72E-1A98-4AF9-85ED-9B48C5F1C2DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{83C1A92D-D918-4313-8579-BEE3A2F8FDC2}" type="presOf" srcId="{774072D0-931C-49F4-9067-EE0F12F706A5}" destId="{A75D6516-48A3-4FAB-96AE-57D7C936C49C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{29CDA52E-C429-4B55-A61F-EE03A923B56A}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{774072D0-931C-49F4-9067-EE0F12F706A5}" srcOrd="0" destOrd="0" parTransId="{07011309-74CE-4D91-A9E5-8726B3BDA4E4}" sibTransId="{C11254D7-0BF0-4E95-92C4-9DED911BDBD5}"/>
+    <dgm:cxn modelId="{8849D231-624A-4717-AD2C-A5AAEF39B751}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{60EE2A07-C51D-48C8-8929-C93A64AB8387}" srcOrd="1" destOrd="0" parTransId="{465B3217-C6AF-4BDB-B88A-0647A76C0B38}" sibTransId="{A01DE0E3-355C-42AD-B0F7-D5452F1DF6B5}"/>
+    <dgm:cxn modelId="{ECC54833-5732-4D4F-8EB7-AD64BE76EF6B}" type="presOf" srcId="{6E3324DF-5EEC-41CB-88D2-3FF47FF29D84}" destId="{CB0AA845-0864-43CB-A7EE-E121D705DD81}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{32C39D33-09A7-4685-A7B7-CF1E1765DBC0}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{1DD8FAED-C655-47B8-B424-497E2EE3C199}" srcOrd="2" destOrd="0" parTransId="{012004B0-C49A-4F0A-91D2-AFB925B4F235}" sibTransId="{D72E5133-B1A9-4EB2-9191-7310F34A5730}"/>
+    <dgm:cxn modelId="{9E08445F-7EA3-4C12-8A58-635E604133CE}" type="presOf" srcId="{DC5F5DAA-B2D2-49D2-A241-46164D7204B1}" destId="{AC6C9236-E66E-4102-ABE3-547329D6A2B9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9F41F160-A227-4DD2-BFB9-A055EBC859BB}" srcId="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" destId="{AD586799-4B48-4CE3-BF36-278A0A6ABFDF}" srcOrd="3" destOrd="0" parTransId="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" sibTransId="{E8EB4B71-DB3F-4B08-A795-9E486CABF34B}"/>
+    <dgm:cxn modelId="{10C37B63-ED5D-4AB7-9DCE-3108733509ED}" type="presOf" srcId="{63D6B117-ACA3-447B-A1EA-540F51377766}" destId="{27A405A8-D3E3-42BA-AEC5-1CCA5114A729}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D05DB043-725C-418E-AF14-620FF815F06F}" type="presOf" srcId="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" destId="{197AAD30-AF83-4EF0-85BB-82B74B47AD5D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{202A1B45-13E6-499E-B6D8-10F9AEEC2981}" type="presOf" srcId="{465B3217-C6AF-4BDB-B88A-0647A76C0B38}" destId="{FD989055-DF30-47A4-936F-D6FE54FB1C16}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D20DB969-C352-4B32-8802-903A24D88CB6}" type="presOf" srcId="{7353AFA1-15F3-4F00-9FA2-75575716ADEE}" destId="{6AFE6393-E175-4029-B5E8-5A4ED9713706}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4B64E76A-05CF-4351-A6F9-17C5CEFBD759}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{87E61118-D386-430A-B384-6C00FBDBF7E5}" srcOrd="4" destOrd="0" parTransId="{24A54765-A882-4BC9-95BE-41A480195D90}" sibTransId="{CBE0E7EE-A58B-45A3-B640-40D746858DE8}"/>
+    <dgm:cxn modelId="{A516656D-80D6-4867-9AF7-81ACE258EA7F}" srcId="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" destId="{5A7DAEE0-01A1-4D9D-8EFC-F32EFD0BB449}" srcOrd="1" destOrd="0" parTransId="{A16E41B2-5488-40AE-A0CF-FE736B205803}" sibTransId="{925106F7-2C49-48DE-B342-8BDA4ADA7906}"/>
+    <dgm:cxn modelId="{E9F3F64D-B0FA-47E0-A619-6A0591B2D22A}" type="presOf" srcId="{5A7DAEE0-01A1-4D9D-8EFC-F32EFD0BB449}" destId="{BF2A56C9-9EEA-4DF3-80BE-1BF9131888D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2193C157-BB37-41EC-90D4-53B20DB84647}" type="presOf" srcId="{971BD098-BABE-481C-B977-225E18976EE6}" destId="{78E7DD40-6DD8-4A4B-8D8E-B14BD272B53E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7406717A-0D6B-458C-92E8-142BA4E5939D}" type="presOf" srcId="{4D9CFF37-AF00-4799-A9FC-B6F434F1BB17}" destId="{099D3634-B318-4F46-AE83-B08EE3684A62}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A9F0C77A-6D84-42E1-ACE2-8B002C262E35}" type="presOf" srcId="{5E2F1FB8-F258-4D56-AFCA-D1289C6DC632}" destId="{331195D8-EA2E-4292-B8CA-2085B689B10C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{14E3E97A-36BD-4385-A62E-BD8AA49FCB6A}" type="presOf" srcId="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}" destId="{09CF1D3D-01D5-40F8-BEA1-801347EF2FCB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DE9D4A7F-BD36-403F-A551-EF8E9A800F0A}" type="presOf" srcId="{07011309-74CE-4D91-A9E5-8726B3BDA4E4}" destId="{FD0CB378-ADA7-49C3-82E0-E691B4DA503A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9ADE9D7F-291D-42EC-9B58-30268A1120A5}" type="presOf" srcId="{83F66FF6-18EF-47BC-9A36-B67FAADDABF4}" destId="{C25F03EC-7C91-40EA-A091-293C245140A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6548D384-FA15-40C2-BCF6-5889D73CD40B}" type="presOf" srcId="{7AD76085-1EF7-4FA0-AAF7-94E906B86D38}" destId="{B67A0ECE-C1E5-4448-9B63-3D64385F3EAB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C0673889-694F-445B-BD67-76E4D3CE2C00}" type="presOf" srcId="{3D3769D5-BA0C-4F40-AA99-6C329B9E0D49}" destId="{34F2B706-66E1-4261-B79A-DCC4C44B1628}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{1AFC218F-F18B-4ADD-9578-950823355C0B}" type="presOf" srcId="{87E61118-D386-430A-B384-6C00FBDBF7E5}" destId="{4BED9D2E-3146-42D2-8C49-ACA43DAC751A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{03B41090-1B5A-4F6B-8488-E20EC3A154CA}" type="presOf" srcId="{F129DEAC-BED3-416E-BC5D-C9CBCA0F4740}" destId="{9343C0C4-85E1-4411-9DB9-40F643957A8B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8348A092-BC55-46CA-B907-2CD25FB5FCCF}" type="presOf" srcId="{24A54765-A882-4BC9-95BE-41A480195D90}" destId="{E730969C-2265-47C8-BF70-783712BC988C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F6BECF92-320B-41C7-B585-E1946C43729B}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{98D9F6E5-E26E-4ECD-AF1E-78747923D593}" srcOrd="8" destOrd="0" parTransId="{DC5F5DAA-B2D2-49D2-A241-46164D7204B1}" sibTransId="{320440E0-5AD8-4723-9DA6-5F8751F3E8B2}"/>
+    <dgm:cxn modelId="{83A64894-CD1E-4786-A5EC-B3B0FBED593D}" type="presOf" srcId="{760C9A88-7FE2-4D6E-8362-70599A5E176B}" destId="{CF0423C4-6EA4-41F9-A046-4D99EB0124E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DF161D96-7B4B-4C62-92BC-1D4C824E6667}" type="presOf" srcId="{A16E41B2-5488-40AE-A0CF-FE736B205803}" destId="{90A8264F-505A-42CC-B284-E5BE45EDBCD9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C0B26D99-5596-4F24-85B4-B5DB6E1FDB1E}" type="presOf" srcId="{AD586799-4B48-4CE3-BF36-278A0A6ABFDF}" destId="{E746D0F2-3E36-483D-B695-567907677C18}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{53CB579A-200D-438D-8711-8D08840B6148}" type="presOf" srcId="{4D9CFF37-AF00-4799-A9FC-B6F434F1BB17}" destId="{7AF238F0-EF86-4FA3-9A49-D82FEC3695B8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3482EA9C-DB35-45EC-87FD-B2739844AFD7}" type="presOf" srcId="{50D9A437-ECC0-44A0-BC2D-F6038DB13C70}" destId="{C108176B-E738-4704-AF28-F6528C67536F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DF21CA9E-8E13-460A-A742-ED3EFFFC3718}" type="presOf" srcId="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" destId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A41A389F-B947-4E3F-A317-E8FC035D0C7A}" type="presOf" srcId="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" destId="{9DDA283B-EA8E-405C-BD97-E44435EB9EFA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{055A9DA1-BBDB-4A7F-BE9E-A1FD1636550A}" type="presOf" srcId="{60E9B284-392D-4326-989E-E26884CD887A}" destId="{8F325E4E-94E1-41F0-8A0B-871F31007CAB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FDE12FA2-07DE-4EA8-8215-2447B078AD80}" type="presOf" srcId="{E02AEED5-C662-48A4-9C36-9FB85DB2E1B7}" destId="{CCC0EF18-43BD-4634-BCA3-8467968FA7AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DCF8F8A2-3CD1-43FE-ACD8-2E8DBEDD5D8E}" type="presOf" srcId="{DC5F5DAA-B2D2-49D2-A241-46164D7204B1}" destId="{5995C0E6-948A-4BFE-B0A2-C9904F2AA0F4}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{593DD4A6-1675-43FB-A13F-67E7BFCAFFFD}" type="presOf" srcId="{E26F0B5B-B76B-417C-B5A4-CBDE42890889}" destId="{83C329AA-6184-4F18-A2BB-F27EE589843C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E92997A7-DE6E-4A66-A28B-A3C92C84FF49}" type="presOf" srcId="{4F8B6245-9BB5-4A7C-8F72-96357217B8C8}" destId="{D8A48346-CB8B-4E62-9DF1-AFFBDD643CA3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0CC122AD-5BB7-4709-899E-FEEF0754E8BC}" type="presOf" srcId="{7AD76085-1EF7-4FA0-AAF7-94E906B86D38}" destId="{62FD03F3-0938-41E5-8A6B-A3DEC7E5C116}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4588B7AE-EFA3-49FA-A0AB-2B25E39F0172}" type="presOf" srcId="{A4AB7E66-835E-4A75-9365-21D08A9C85AE}" destId="{C68D3D45-5D23-4C21-8B1A-8E986FE4B026}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CEE48AB5-AF75-41F0-B0B2-0B5652716615}" srcId="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" destId="{971BD098-BABE-481C-B977-225E18976EE6}" srcOrd="2" destOrd="0" parTransId="{4D9CFF37-AF00-4799-A9FC-B6F434F1BB17}" sibTransId="{FF84429F-F610-45C1-AA1A-082A69BA7DB3}"/>
+    <dgm:cxn modelId="{DEBD0EB7-FFD3-4E9D-AB76-E1BEB07124B7}" type="presOf" srcId="{012004B0-C49A-4F0A-91D2-AFB925B4F235}" destId="{80B136B6-8FDF-434D-9D8F-8BC11A3BD369}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4B26CABA-C9F3-41E3-80A5-F83C984D62F5}" type="presOf" srcId="{6E3324DF-5EEC-41CB-88D2-3FF47FF29D84}" destId="{2AFEE7C1-EF54-48D3-9619-231B57DFCA60}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C6AE56C2-1CB3-4D35-AB39-09CBD931D518}" type="presOf" srcId="{760C9A88-7FE2-4D6E-8362-70599A5E176B}" destId="{A34C8EF8-5430-4305-B966-B2F00A8211FB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EAD357C2-AF30-4EB8-B092-390A6BD9AD12}" type="presOf" srcId="{7353AFA1-15F3-4F00-9FA2-75575716ADEE}" destId="{3A2AB094-DEA9-483B-AF68-D6ADFFAB19D9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2A38C0C4-6E9D-4ABA-8675-730EF7AEF33B}" srcId="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" destId="{F8362600-2B5C-44DF-AC81-D1FB53879996}" srcOrd="0" destOrd="0" parTransId="{760C9A88-7FE2-4D6E-8362-70599A5E176B}" sibTransId="{38CCA815-07A4-45DE-A70D-FC3338C83026}"/>
+    <dgm:cxn modelId="{9E0FD3C8-1638-4A2E-BC0B-0FB7EA7496E4}" type="presOf" srcId="{7450E800-359D-4E96-B6FD-540BD0E7A374}" destId="{F65D3CFB-6315-4F9C-A94B-A1BD647B8A96}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DF7F73CF-CF6C-4D0A-916C-B6EC1BC2618E}" srcId="{5A7DAEE0-01A1-4D9D-8EFC-F32EFD0BB449}" destId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" srcOrd="0" destOrd="0" parTransId="{60E9B284-392D-4326-989E-E26884CD887A}" sibTransId="{FFD914F0-3351-401D-8B5F-54C5ED7F0A01}"/>
+    <dgm:cxn modelId="{C635E4D3-0188-4C9E-AF63-E439F130E6A0}" type="presOf" srcId="{55159D8C-2B4A-41DE-9414-FFD423A02BFC}" destId="{E36FC568-3D5D-4143-B0E1-9DDB1FA6F5AE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6DC324DB-8A32-443B-BFEE-C5A03415C5EA}" type="presOf" srcId="{98D9F6E5-E26E-4ECD-AF1E-78747923D593}" destId="{750598CE-BC27-458B-92A4-2D17B544DE63}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DB6CAFE2-74D7-4C2F-896D-1EE5D4F105FD}" type="presOf" srcId="{60EE2A07-C51D-48C8-8929-C93A64AB8387}" destId="{956AC369-2A6E-4E5C-95B1-CAB1BF8A9609}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{353ED9E3-897D-4765-8B62-0488F4CA73D6}" type="presOf" srcId="{60E9B284-392D-4326-989E-E26884CD887A}" destId="{895EE1D3-11B0-46AC-89E1-3C8C71E5E752}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8CCEBEE4-52B9-4301-A478-8C943BD745B2}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{A4AB7E66-835E-4A75-9365-21D08A9C85AE}" srcOrd="6" destOrd="0" parTransId="{63D6B117-ACA3-447B-A1EA-540F51377766}" sibTransId="{49FAB0F9-76E5-4465-8DFD-DB12FB45FB13}"/>
+    <dgm:cxn modelId="{1346A1EA-8D40-4601-926E-E24FB56585A7}" type="presOf" srcId="{E02AEED5-C662-48A4-9C36-9FB85DB2E1B7}" destId="{8DBE3731-9061-4382-8B66-3AC2E0DBB02B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7A6125EB-6868-4C33-9D25-81EB3813EC2A}" type="presOf" srcId="{865A5AE6-6832-4106-B84D-139887C06B13}" destId="{C16E6F01-FE5B-4BCA-BDDD-E01C71068408}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C0E158EC-051E-4C16-BFA8-9998598CBF8C}" type="presOf" srcId="{63D6B117-ACA3-447B-A1EA-540F51377766}" destId="{CD5258AE-490E-4C9F-9FE1-E4564DF87772}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E4100EF6-71B4-44BF-9E2F-9E376B6FF0DA}" type="presOf" srcId="{24A54765-A882-4BC9-95BE-41A480195D90}" destId="{CFD06B68-70DA-440A-A7FD-E75A3D5E9B7B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8C0844F6-2DA5-4251-828E-FD32A0350102}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{CC4960BD-C666-4AC7-99E1-48D42476C162}" srcOrd="3" destOrd="0" parTransId="{F129DEAC-BED3-416E-BC5D-C9CBCA0F4740}" sibTransId="{E8120E06-B302-4D7E-8778-593685A416F5}"/>
+    <dgm:cxn modelId="{7B5E16F8-7DE9-4A56-9FD8-31AB25CB2632}" srcId="{5E2F1FB8-F258-4D56-AFCA-D1289C6DC632}" destId="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" srcOrd="0" destOrd="0" parTransId="{A8BF68BA-5F45-4D67-ACC1-D1A50F28C9DF}" sibTransId="{9003DE60-34A3-4175-B0B0-22D24D663CD2}"/>
+    <dgm:cxn modelId="{4531FCFA-227C-4F4D-86AD-5CB4072C4F34}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{3D3769D5-BA0C-4F40-AA99-6C329B9E0D49}" srcOrd="7" destOrd="0" parTransId="{55159D8C-2B4A-41DE-9414-FFD423A02BFC}" sibTransId="{DBC4DB08-D7C9-467D-9C4D-A1396EE9DB48}"/>
+    <dgm:cxn modelId="{011915FE-BD37-400C-AAAA-9E02FC2ED2A0}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{4F8B6245-9BB5-4A7C-8F72-96357217B8C8}" srcOrd="5" destOrd="0" parTransId="{7AD76085-1EF7-4FA0-AAF7-94E906B86D38}" sibTransId="{934F3F4E-782B-432C-B5A0-53C23057E7ED}"/>
+    <dgm:cxn modelId="{2FE7CFFE-C5A8-48B4-912F-BC7696D3B20C}" srcId="{F8362600-2B5C-44DF-AC81-D1FB53879996}" destId="{7450E800-359D-4E96-B6FD-540BD0E7A374}" srcOrd="0" destOrd="0" parTransId="{7353AFA1-15F3-4F00-9FA2-75575716ADEE}" sibTransId="{8FE576BF-CEA5-4EEA-A89C-33A298DA6679}"/>
+    <dgm:cxn modelId="{809EB7FF-9AE7-4CD8-BCE9-C3020812975D}" type="presOf" srcId="{F129DEAC-BED3-416E-BC5D-C9CBCA0F4740}" destId="{430244D7-2332-4438-A1DB-8D338C935A93}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E66B222C-639A-43BC-85B5-6C466816CE83}" type="presParOf" srcId="{331195D8-EA2E-4292-B8CA-2085B689B10C}" destId="{6C1E8AD3-6104-41DA-85F5-EF61CA59BC98}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7355B026-EC4C-4C3B-B8D2-65E71884AFD4}" type="presParOf" srcId="{6C1E8AD3-6104-41DA-85F5-EF61CA59BC98}" destId="{9DDA283B-EA8E-405C-BD97-E44435EB9EFA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{64C10F53-FC8F-4809-AA2E-0C43285A4048}" type="presParOf" srcId="{6C1E8AD3-6104-41DA-85F5-EF61CA59BC98}" destId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{66A5E66A-DADB-4989-AA7C-1554FB6C4A72}" type="presParOf" srcId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" destId="{CF0423C4-6EA4-41F9-A046-4D99EB0124E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ACF6FE3F-177C-40FC-BDF0-E108BE21D3CE}" type="presParOf" srcId="{CF0423C4-6EA4-41F9-A046-4D99EB0124E5}" destId="{A34C8EF8-5430-4305-B966-B2F00A8211FB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9A940503-8281-45A1-A6EC-BB3CE7A0EED9}" type="presParOf" srcId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" destId="{EA5474BA-2DFB-4BE9-B8D3-7C81D624A1BC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DF5E63A9-3802-4A0B-AEC2-EA758EC05815}" type="presParOf" srcId="{EA5474BA-2DFB-4BE9-B8D3-7C81D624A1BC}" destId="{ECEFD72E-1A98-4AF9-85ED-9B48C5F1C2DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9C62FAF1-434A-49DA-9AE1-17F3969C7B24}" type="presParOf" srcId="{EA5474BA-2DFB-4BE9-B8D3-7C81D624A1BC}" destId="{863A882F-8C14-45DF-B275-83D8DF56CA31}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C8A95BE9-8914-4B37-BBFB-F78E92686168}" type="presParOf" srcId="{863A882F-8C14-45DF-B275-83D8DF56CA31}" destId="{3A2AB094-DEA9-483B-AF68-D6ADFFAB19D9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B53BC353-250E-492D-B479-19078CE96B08}" type="presParOf" srcId="{3A2AB094-DEA9-483B-AF68-D6ADFFAB19D9}" destId="{6AFE6393-E175-4029-B5E8-5A4ED9713706}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C0AF9E64-0A32-48EF-BC6A-C193178B416D}" type="presParOf" srcId="{863A882F-8C14-45DF-B275-83D8DF56CA31}" destId="{FA3C6296-FCE3-4261-B73F-C82DD528BA54}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A52BC3B8-D169-401F-9C88-9952C24DEB3B}" type="presParOf" srcId="{FA3C6296-FCE3-4261-B73F-C82DD528BA54}" destId="{F65D3CFB-6315-4F9C-A94B-A1BD647B8A96}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3964C5E7-A2F0-403F-89DA-E1D9B698C1D6}" type="presParOf" srcId="{FA3C6296-FCE3-4261-B73F-C82DD528BA54}" destId="{16083C88-AB81-4158-8AF6-2F6F990707CE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{73D40AA4-8EF7-4857-BAE0-8B264D5710D4}" type="presParOf" srcId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" destId="{B9967B85-1A92-4A41-BDE3-09E17DA221DB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DA6E6E9A-59D8-46BC-8459-CF88E37DDA62}" type="presParOf" srcId="{B9967B85-1A92-4A41-BDE3-09E17DA221DB}" destId="{90A8264F-505A-42CC-B284-E5BE45EDBCD9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2730B69B-AC26-44BD-9DD0-F8202AAAC4A4}" type="presParOf" srcId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" destId="{1DC29C37-8365-4983-AEE6-052C192D5D92}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C58232F2-2280-4290-B151-3EA8349E740F}" type="presParOf" srcId="{1DC29C37-8365-4983-AEE6-052C192D5D92}" destId="{BF2A56C9-9EEA-4DF3-80BE-1BF9131888D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DBEBF45C-7904-4AD1-ABCE-EF58ED13ED25}" type="presParOf" srcId="{1DC29C37-8365-4983-AEE6-052C192D5D92}" destId="{FB0409F2-8BE2-465D-A07C-5392EE5F4D58}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{20C6CAFE-66AD-4000-BDFC-23CD0A9D0091}" type="presParOf" srcId="{FB0409F2-8BE2-465D-A07C-5392EE5F4D58}" destId="{8F325E4E-94E1-41F0-8A0B-871F31007CAB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{57BA60F8-230D-44AC-B857-BD38A21169C0}" type="presParOf" srcId="{8F325E4E-94E1-41F0-8A0B-871F31007CAB}" destId="{895EE1D3-11B0-46AC-89E1-3C8C71E5E752}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{90F144E8-CB48-4DFA-82FD-50983468E90F}" type="presParOf" srcId="{FB0409F2-8BE2-465D-A07C-5392EE5F4D58}" destId="{B23810ED-7261-4E24-9A69-7ED505F4E1C8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BE045D48-18D3-4E38-8380-D8AE97DB6D44}" type="presParOf" srcId="{B23810ED-7261-4E24-9A69-7ED505F4E1C8}" destId="{2F617C8C-E497-4C82-A5E3-B207B6A80718}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0C80AC36-68B9-44DB-B2EA-936E6EEB091D}" type="presParOf" srcId="{B23810ED-7261-4E24-9A69-7ED505F4E1C8}" destId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A1483D7B-50C4-4F4D-B66C-F90D3B8E14B0}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{FD0CB378-ADA7-49C3-82E0-E691B4DA503A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CDEA2D56-B509-42ED-8F2D-2B2A7171F85A}" type="presParOf" srcId="{FD0CB378-ADA7-49C3-82E0-E691B4DA503A}" destId="{2493BEAA-53CB-4A0F-984C-AC09B1FC9A3A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{06458871-8D77-401F-A081-D7A44C926F5D}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{FC9D3BB3-97C9-4D6B-9DE3-C146C09C2D5B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6330C25B-2A5A-4423-938B-C2A3A77583DF}" type="presParOf" srcId="{FC9D3BB3-97C9-4D6B-9DE3-C146C09C2D5B}" destId="{A75D6516-48A3-4FAB-96AE-57D7C936C49C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2B03169E-6659-4E11-8D18-F1C815526E10}" type="presParOf" srcId="{FC9D3BB3-97C9-4D6B-9DE3-C146C09C2D5B}" destId="{02E94EDA-036A-4089-84E3-4D8E0C3E4BF3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BB4F8585-98E9-44CA-A4FC-9B7B87FAA023}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{0BDE80F7-B911-4899-B224-784C65367BED}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5A5C0940-C4AA-48E3-A2A8-2B09E5CA4C23}" type="presParOf" srcId="{0BDE80F7-B911-4899-B224-784C65367BED}" destId="{FD989055-DF30-47A4-936F-D6FE54FB1C16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C4EEAA49-85F9-450B-9A6A-E0408B203FE0}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{3C66D365-8E0F-48FD-A3DD-D078E3E643D6}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{37A44619-CD8C-417B-A6DC-1E4AFD40E978}" type="presParOf" srcId="{3C66D365-8E0F-48FD-A3DD-D078E3E643D6}" destId="{956AC369-2A6E-4E5C-95B1-CAB1BF8A9609}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0A8C6DB7-7251-4752-A37B-45040B8727BC}" type="presParOf" srcId="{3C66D365-8E0F-48FD-A3DD-D078E3E643D6}" destId="{8657534E-9286-4CA1-ABD0-E25EBF815485}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{366D8059-C94D-473C-9143-43912DE73AF8}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{4739358B-3287-4C11-8CD3-C27466B7EE2A}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8DF26EA6-42A9-416B-9E60-1EE74F809E6A}" type="presParOf" srcId="{4739358B-3287-4C11-8CD3-C27466B7EE2A}" destId="{80B136B6-8FDF-434D-9D8F-8BC11A3BD369}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FDC799B1-930C-4248-8BC6-30BB9EC8DD7E}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{C596501C-E674-4C3E-9EE5-7EAA013FE51D}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F9026B82-81DF-4D0E-9869-219564F92326}" type="presParOf" srcId="{C596501C-E674-4C3E-9EE5-7EAA013FE51D}" destId="{FD0EC4D4-D97A-4B61-81E5-1C3DE85F8363}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{9437A236-B4B1-4C58-A5D1-F0407EB79992}" type="presParOf" srcId="{C596501C-E674-4C3E-9EE5-7EAA013FE51D}" destId="{50DDF4BD-A6C4-44C6-BF29-65A9086365E1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CDEE0BD1-DBCE-4690-92F9-6992962BE32F}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{430244D7-2332-4438-A1DB-8D338C935A93}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0FD7D4F7-582C-4389-AC58-69348FB3E535}" type="presParOf" srcId="{430244D7-2332-4438-A1DB-8D338C935A93}" destId="{9343C0C4-85E1-4411-9DB9-40F643957A8B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{534B7FCD-7D4F-4FBC-9376-D566411727BF}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{1175A0F3-92FF-4DC2-858D-1AD5E2EB9C3F}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ED47F22E-3ADC-4D89-A063-AD69C54FF334}" type="presParOf" srcId="{1175A0F3-92FF-4DC2-858D-1AD5E2EB9C3F}" destId="{928D2FA1-AA64-4B72-81C9-0B3AC0841CAB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{5D54A82B-2C0F-4F58-A514-73BAD80D4796}" type="presParOf" srcId="{1175A0F3-92FF-4DC2-858D-1AD5E2EB9C3F}" destId="{452098D1-8275-4D91-9E4E-DC6BFD8038C7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{89857769-E43D-4615-8FD6-8AC613BF6B27}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{CFD06B68-70DA-440A-A7FD-E75A3D5E9B7B}" srcOrd="8" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2461E459-64DD-4E6E-BB5F-491F6013A6E8}" type="presParOf" srcId="{CFD06B68-70DA-440A-A7FD-E75A3D5E9B7B}" destId="{E730969C-2265-47C8-BF70-783712BC988C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{BB06D6D9-6153-4A86-8876-F791327AAAB2}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{26A65750-38C9-4896-8E70-F299B452D308}" srcOrd="9" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{625E5AA5-07A5-4D15-A24B-23E31564B858}" type="presParOf" srcId="{26A65750-38C9-4896-8E70-F299B452D308}" destId="{4BED9D2E-3146-42D2-8C49-ACA43DAC751A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2454A954-D26B-4DD6-941C-4AD76755ED52}" type="presParOf" srcId="{26A65750-38C9-4896-8E70-F299B452D308}" destId="{AB350BC6-BEA0-4FEC-A6EB-1088F422C200}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{FEF80320-7DA2-4DF5-9BD1-F6636F6D026B}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{B67A0ECE-C1E5-4448-9B63-3D64385F3EAB}" srcOrd="10" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{34A5C257-6B94-48FF-90DA-91CD662C4CD8}" type="presParOf" srcId="{B67A0ECE-C1E5-4448-9B63-3D64385F3EAB}" destId="{62FD03F3-0938-41E5-8A6B-A3DEC7E5C116}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{958561CF-444D-4DAE-8586-C2C3A34E5649}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{1A595C5E-F392-4885-A80E-9F677CCCB9F0}" srcOrd="11" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E3A7F17F-35D7-4135-83BD-B492B1B66A87}" type="presParOf" srcId="{1A595C5E-F392-4885-A80E-9F677CCCB9F0}" destId="{D8A48346-CB8B-4E62-9DF1-AFFBDD643CA3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{834FC333-B006-4BAB-9AF8-1CF41109C88A}" type="presParOf" srcId="{1A595C5E-F392-4885-A80E-9F677CCCB9F0}" destId="{5328B1D1-5794-4BCF-8922-58AD07B9D662}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{43F43542-6C70-40F8-8AFD-1922D1B3A518}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{CD5258AE-490E-4C9F-9FE1-E4564DF87772}" srcOrd="12" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DB196C04-2AEA-4801-B487-34540D887EBC}" type="presParOf" srcId="{CD5258AE-490E-4C9F-9FE1-E4564DF87772}" destId="{27A405A8-D3E3-42BA-AEC5-1CCA5114A729}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A953E5C2-7095-408C-B4DD-464BE5804053}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{CF110489-93EB-4AA6-A0C2-488C541681C6}" srcOrd="13" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6D69030A-AF09-4FF8-B4C6-7DDA18392CF6}" type="presParOf" srcId="{CF110489-93EB-4AA6-A0C2-488C541681C6}" destId="{C68D3D45-5D23-4C21-8B1A-8E986FE4B026}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3EEF441D-D304-4126-8A76-97C71AEF2E30}" type="presParOf" srcId="{CF110489-93EB-4AA6-A0C2-488C541681C6}" destId="{EE2C52F6-949F-42FB-9CC5-2C8ADD942246}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{651E3B28-A99E-4F17-8CED-E272F075B415}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{BD0D69DF-C381-4750-B5B5-FBC72D11641A}" srcOrd="14" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F6218381-F26B-4EDE-AE83-BEFE7FCC7CF4}" type="presParOf" srcId="{BD0D69DF-C381-4750-B5B5-FBC72D11641A}" destId="{E36FC568-3D5D-4143-B0E1-9DDB1FA6F5AE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0538896A-B13D-410F-AC34-7777F0578A91}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{E01BBCEC-9586-435C-BD57-3CC212B981CB}" srcOrd="15" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{135300A1-08D6-4F68-90E8-DC0441E05067}" type="presParOf" srcId="{E01BBCEC-9586-435C-BD57-3CC212B981CB}" destId="{34F2B706-66E1-4261-B79A-DCC4C44B1628}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CC72E5EE-EB8E-4312-84DF-4D461F7976BE}" type="presParOf" srcId="{E01BBCEC-9586-435C-BD57-3CC212B981CB}" destId="{5D569A14-F734-42CD-A2BA-14B586A6BC93}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D094B2C6-2AEE-43B2-858E-B6F305B33949}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{AC6C9236-E66E-4102-ABE3-547329D6A2B9}" srcOrd="16" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6F21330B-4770-4409-A201-0B84AD15CBAA}" type="presParOf" srcId="{AC6C9236-E66E-4102-ABE3-547329D6A2B9}" destId="{5995C0E6-948A-4BFE-B0A2-C9904F2AA0F4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{7537849C-C102-4100-B1EC-61E83F0D6C3F}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{3FDE373D-D589-4B20-920B-213CACCC67BC}" srcOrd="17" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B01D2788-B00E-4316-A13A-DDB7A80C890B}" type="presParOf" srcId="{3FDE373D-D589-4B20-920B-213CACCC67BC}" destId="{750598CE-BC27-458B-92A4-2D17B544DE63}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{A5CCAD1D-0DE6-445A-9DFE-F5DC5B091E7B}" type="presParOf" srcId="{3FDE373D-D589-4B20-920B-213CACCC67BC}" destId="{139D789C-0AA3-46C3-9962-90C51EC08CC2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4BB86D55-4CCD-43E5-8BFF-F2E10B85BD5F}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{AB4D3431-6B25-4D2F-8546-DE62B2BBA405}" srcOrd="18" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D5CFC4CA-7ACF-470D-A118-879805EF995B}" type="presParOf" srcId="{AB4D3431-6B25-4D2F-8546-DE62B2BBA405}" destId="{C16E6F01-FE5B-4BCA-BDDD-E01C71068408}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C1C61D9B-3967-4884-B538-EC3A61B66B09}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{3D64ECF1-4DD5-44C6-92EE-7A71E3B0B8E6}" srcOrd="19" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{ECD9505D-B810-4CA0-A44D-A2A3DD84EF9A}" type="presParOf" srcId="{3D64ECF1-4DD5-44C6-92EE-7A71E3B0B8E6}" destId="{C25F03EC-7C91-40EA-A091-293C245140A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{DB97272B-D044-4B50-B850-5321D49FD4A6}" type="presParOf" srcId="{3D64ECF1-4DD5-44C6-92EE-7A71E3B0B8E6}" destId="{052BFFBF-AC13-4D3A-AA70-AB3FDCB53E26}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{88AA9102-D640-4FC6-A6EF-760ABF9934B3}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{CCC0EF18-43BD-4634-BCA3-8467968FA7AC}" srcOrd="20" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{F8CC3202-8F07-4BE9-AED8-66D4F792751C}" type="presParOf" srcId="{CCC0EF18-43BD-4634-BCA3-8467968FA7AC}" destId="{8DBE3731-9061-4382-8B66-3AC2E0DBB02B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{724CFEF2-7788-4905-ADF2-3883B0148CF4}" type="presParOf" srcId="{A76FD2F0-AB98-48F4-A308-460F69C62855}" destId="{3D0ABA1B-93AF-42FA-95D7-F258B3AAC490}" srcOrd="21" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AF9E29B9-31ED-44B0-8611-694307938643}" type="presParOf" srcId="{3D0ABA1B-93AF-42FA-95D7-F258B3AAC490}" destId="{83C329AA-6184-4F18-A2BB-F27EE589843C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{148C3697-FB78-405F-BC0B-C896B0358070}" type="presParOf" srcId="{3D0ABA1B-93AF-42FA-95D7-F258B3AAC490}" destId="{515275E2-922E-49FF-A61B-7AF1B9253355}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{8B60A61D-C61C-4BDC-95ED-31678AD46173}" type="presParOf" srcId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" destId="{099D3634-B318-4F46-AE83-B08EE3684A62}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D944F715-F498-4FF9-A296-59A4E407EDF5}" type="presParOf" srcId="{099D3634-B318-4F46-AE83-B08EE3684A62}" destId="{7AF238F0-EF86-4FA3-9A49-D82FEC3695B8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6876F1C3-4945-4172-9ACB-8FF3ECC59B77}" type="presParOf" srcId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" destId="{56D10059-BFD1-4FAB-9440-55EC41495092}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{58F46BA0-9B49-42B8-8068-ECAA42F0BF26}" type="presParOf" srcId="{56D10059-BFD1-4FAB-9440-55EC41495092}" destId="{78E7DD40-6DD8-4A4B-8D8E-B14BD272B53E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{303057D9-A5A5-4417-9830-E8729EA40AEA}" type="presParOf" srcId="{56D10059-BFD1-4FAB-9440-55EC41495092}" destId="{1294FCC5-807B-4926-B2E2-5A1282AEE3FE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D9CA6FA2-3A01-41EE-AD51-AC38FDDC8D6D}" type="presParOf" srcId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" destId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C22342FB-F925-48DA-9A4A-9DB50F98A539}" type="presParOf" srcId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}" destId="{197AAD30-AF83-4EF0-85BB-82B74B47AD5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B717EC58-EFC0-41ED-ADD1-E75CDD981E27}" type="presParOf" srcId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" destId="{24E6EB68-1BC0-40BF-BB7C-725CEFD49232}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{233D01C9-9FA1-4196-97B0-DA9D3F9F6CDA}" type="presParOf" srcId="{24E6EB68-1BC0-40BF-BB7C-725CEFD49232}" destId="{E746D0F2-3E36-483D-B695-567907677C18}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{AD27AEB7-B5EE-43EB-A6AD-313C423D6EA3}" type="presParOf" srcId="{24E6EB68-1BC0-40BF-BB7C-725CEFD49232}" destId="{CDD74AEF-7834-416A-801E-D9AB50BD76C6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6283655D-0BB1-4A74-8A4B-A3DA4FB1433D}" type="presParOf" srcId="{331195D8-EA2E-4292-B8CA-2085B689B10C}" destId="{E5C7F18F-410B-4745-9D47-29DDA5E34F22}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CA3972BB-265E-4A33-9283-0523138F84EB}" type="presParOf" srcId="{E5C7F18F-410B-4745-9D47-29DDA5E34F22}" destId="{09CF1D3D-01D5-40F8-BEA1-801347EF2FCB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D382E696-555E-45A1-9CFF-EA9401908ECB}" type="presParOf" srcId="{E5C7F18F-410B-4745-9D47-29DDA5E34F22}" destId="{AE5A4F71-F63E-45FD-A6DC-F422E6F5291F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2C5A6B5F-5337-4B42-B585-90F69A063756}" type="presParOf" srcId="{AE5A4F71-F63E-45FD-A6DC-F422E6F5291F}" destId="{2AFEE7C1-EF54-48D3-9619-231B57DFCA60}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C53EE6DB-4CA1-4792-84D4-88A55E60D429}" type="presParOf" srcId="{2AFEE7C1-EF54-48D3-9619-231B57DFCA60}" destId="{CB0AA845-0864-43CB-A7EE-E121D705DD81}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CEF1B9E2-406C-40B1-8EB7-7237AD522B3D}" type="presParOf" srcId="{AE5A4F71-F63E-45FD-A6DC-F422E6F5291F}" destId="{FAA56CAA-09CE-41A7-A0AB-5153005983A9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6D6D4E03-D113-49E1-B48E-C71D3C31E3C2}" type="presParOf" srcId="{FAA56CAA-09CE-41A7-A0AB-5153005983A9}" destId="{C108176B-E738-4704-AF28-F6528C67536F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0ADEB050-5684-44F1-B209-23033E6D630E}" type="presParOf" srcId="{FAA56CAA-09CE-41A7-A0AB-5153005983A9}" destId="{107C48B9-DCD1-4582-AE16-86EFFA7F9C0B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{5E2F1FB8-F258-4D56-AFCA-D1289C6DC632}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>input UI</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A8BF68BA-5F45-4D67-ACC1-D1A50F28C9DF}" type="parTrans" cxnId="{7B5E16F8-7DE9-4A56-9FD8-31AB25CB2632}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9003DE60-34A3-4175-B0B0-22D24D663CD2}" type="sibTrans" cxnId="{7B5E16F8-7DE9-4A56-9FD8-31AB25CB2632}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F8362600-2B5C-44DF-AC81-D1FB53879996}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>8 x txt fields</a:t>
           </a:r>
         </a:p>
       </dgm:t>
@@ -1396,6 +3553,78 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>output UI</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5599AAC5-FFAC-4FF6-9300-AC0D471F0CCE}" type="parTrans" cxnId="{27E5AE0A-5069-4F41-A8FF-508BE1F9DE4A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BEF3F1D2-CD06-41B7-A929-91A5EF7E6329}" type="sibTrans" cxnId="{27E5AE0A-5069-4F41-A8FF-508BE1F9DE4A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{50D9A437-ECC0-44A0-BC2D-F6038DB13C70}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB"/>
+            <a:t>phasor diagram</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6E3324DF-5EEC-41CB-88D2-3FF47FF29D84}" type="parTrans" cxnId="{EE1EB31A-4534-4C55-96D2-6B5722E20B73}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FCB1854A-8C53-40CF-8EC1-C4B8A939F42B}" type="sibTrans" cxnId="{EE1EB31A-4534-4C55-96D2-6B5722E20B73}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{331195D8-EA2E-4292-B8CA-2085B689B10C}" type="pres">
       <dgm:prSet presAssocID="{5E2F1FB8-F258-4D56-AFCA-D1289C6DC632}" presName="diagram" presStyleCnt="0">
         <dgm:presLayoutVars>
@@ -1413,7 +3642,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9DDA283B-EA8E-405C-BD97-E44435EB9EFA}" type="pres">
-      <dgm:prSet presAssocID="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1">
+      <dgm:prSet presAssocID="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="2">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1425,11 +3654,11 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{CF0423C4-6EA4-41F9-A046-4D99EB0124E5}" type="pres">
-      <dgm:prSet presAssocID="{760C9A88-7FE2-4D6E-8362-70599A5E176B}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{760C9A88-7FE2-4D6E-8362-70599A5E176B}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="5"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{A34C8EF8-5430-4305-B966-B2F00A8211FB}" type="pres">
-      <dgm:prSet presAssocID="{760C9A88-7FE2-4D6E-8362-70599A5E176B}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{760C9A88-7FE2-4D6E-8362-70599A5E176B}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="5"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{EA5474BA-2DFB-4BE9-B8D3-7C81D624A1BC}" type="pres">
@@ -1437,7 +3666,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{ECEFD72E-1A98-4AF9-85ED-9B48C5F1C2DA}" type="pres">
-      <dgm:prSet presAssocID="{F8362600-2B5C-44DF-AC81-D1FB53879996}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="4">
+      <dgm:prSet presAssocID="{F8362600-2B5C-44DF-AC81-D1FB53879996}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1473,11 +3702,11 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{B9967B85-1A92-4A41-BDE3-09E17DA221DB}" type="pres">
-      <dgm:prSet presAssocID="{A16E41B2-5488-40AE-A0CF-FE736B205803}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{A16E41B2-5488-40AE-A0CF-FE736B205803}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="5"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{90A8264F-505A-42CC-B284-E5BE45EDBCD9}" type="pres">
-      <dgm:prSet presAssocID="{A16E41B2-5488-40AE-A0CF-FE736B205803}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{A16E41B2-5488-40AE-A0CF-FE736B205803}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="5"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1DC29C37-8365-4983-AEE6-052C192D5D92}" type="pres">
@@ -1485,7 +3714,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{BF2A56C9-9EEA-4DF3-80BE-1BF9131888D0}" type="pres">
-      <dgm:prSet presAssocID="{5A7DAEE0-01A1-4D9D-8EFC-F32EFD0BB449}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="4">
+      <dgm:prSet presAssocID="{5A7DAEE0-01A1-4D9D-8EFC-F32EFD0BB449}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="5">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1713,11 +3942,11 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{48998B4E-27F8-44EE-8690-1D8DEF26389F}" type="pres">
-      <dgm:prSet presAssocID="{4D9CFF37-AF00-4799-A9FC-B6F434F1BB17}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{4D9CFF37-AF00-4799-A9FC-B6F434F1BB17}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="5"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{8C2752AF-50B1-408C-B81A-0C81F2DEA6A9}" type="pres">
-      <dgm:prSet presAssocID="{4D9CFF37-AF00-4799-A9FC-B6F434F1BB17}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{4D9CFF37-AF00-4799-A9FC-B6F434F1BB17}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="5"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{DA54BAB1-A435-4108-A6D5-DEB2F5934B3C}" type="pres">
@@ -1725,7 +3954,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6BF5A490-81CF-40B7-AA26-93E8BD2FCD0A}" type="pres">
-      <dgm:prSet presAssocID="{971BD098-BABE-481C-B977-225E18976EE6}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="4">
+      <dgm:prSet presAssocID="{971BD098-BABE-481C-B977-225E18976EE6}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1737,11 +3966,11 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}" type="pres">
-      <dgm:prSet presAssocID="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="5"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{197AAD30-AF83-4EF0-85BB-82B74B47AD5D}" type="pres">
-      <dgm:prSet presAssocID="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:prSet presAssocID="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="5"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{24E6EB68-1BC0-40BF-BB7C-725CEFD49232}" type="pres">
@@ -1749,7 +3978,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{E746D0F2-3E36-483D-B695-567907677C18}" type="pres">
-      <dgm:prSet presAssocID="{AD586799-4B48-4CE3-BF36-278A0A6ABFDF}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="4">
+      <dgm:prSet presAssocID="{AD586799-4B48-4CE3-BF36-278A0A6ABFDF}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1760,10 +3989,50 @@
       <dgm:prSet presAssocID="{AD586799-4B48-4CE3-BF36-278A0A6ABFDF}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{E5C7F18F-410B-4745-9D47-29DDA5E34F22}" type="pres">
+      <dgm:prSet presAssocID="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}" presName="root1" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{09CF1D3D-01D5-40F8-BEA1-801347EF2FCB}" type="pres">
+      <dgm:prSet presAssocID="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="1" presStyleCnt="2">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AE5A4F71-F63E-45FD-A6DC-F422E6F5291F}" type="pres">
+      <dgm:prSet presAssocID="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}" presName="level2hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2AFEE7C1-EF54-48D3-9619-231B57DFCA60}" type="pres">
+      <dgm:prSet presAssocID="{6E3324DF-5EEC-41CB-88D2-3FF47FF29D84}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CB0AA845-0864-43CB-A7EE-E121D705DD81}" type="pres">
+      <dgm:prSet presAssocID="{6E3324DF-5EEC-41CB-88D2-3FF47FF29D84}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FAA56CAA-09CE-41A7-A0AB-5153005983A9}" type="pres">
+      <dgm:prSet presAssocID="{50D9A437-ECC0-44A0-BC2D-F6038DB13C70}" presName="root2" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C108176B-E738-4704-AF28-F6528C67536F}" type="pres">
+      <dgm:prSet presAssocID="{50D9A437-ECC0-44A0-BC2D-F6038DB13C70}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{107C48B9-DCD1-4582-AE16-86EFFA7F9C0B}" type="pres">
+      <dgm:prSet presAssocID="{50D9A437-ECC0-44A0-BC2D-F6038DB13C70}" presName="level3hierChild" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
-    <dgm:cxn modelId="{5D629206-2FB4-4A11-85C4-FE8A277F74B0}" type="presOf" srcId="{AD586799-4B48-4CE3-BF36-278A0A6ABFDF}" destId="{E746D0F2-3E36-483D-B695-567907677C18}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{7A77C808-FBBE-4295-B12E-73B6131207CC}" type="presOf" srcId="{07011309-74CE-4D91-A9E5-8726B3BDA4E4}" destId="{2493BEAA-53CB-4A0F-984C-AC09B1FC9A3A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{27E5AE0A-5069-4F41-A8FF-508BE1F9DE4A}" srcId="{5E2F1FB8-F258-4D56-AFCA-D1289C6DC632}" destId="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}" srcOrd="1" destOrd="0" parTransId="{5599AAC5-FFAC-4FF6-9300-AC0D471F0CCE}" sibTransId="{BEF3F1D2-CD06-41B7-A929-91A5EF7E6329}"/>
     <dgm:cxn modelId="{318EA80C-C925-475B-84F4-4F36E3AB3F99}" type="presOf" srcId="{4D9CFF37-AF00-4799-A9FC-B6F434F1BB17}" destId="{8C2752AF-50B1-408C-B81A-0C81F2DEA6A9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{DA28C210-E04C-4F2B-A325-EA68B7DB87DB}" type="presOf" srcId="{465B3217-C6AF-4BDB-B88A-0647A76C0B38}" destId="{0BDE80F7-B911-4899-B224-784C65367BED}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6F23DB11-2F27-4A2C-921C-BE761368FED4}" type="presOf" srcId="{1DD8FAED-C655-47B8-B424-497E2EE3C199}" destId="{FD0EC4D4-D97A-4B61-81E5-1C3DE85F8363}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -1771,13 +4040,17 @@
     <dgm:cxn modelId="{64B0B313-47AB-47CA-A4A0-9FD8ECC6AED4}" type="presOf" srcId="{012004B0-C49A-4F0A-91D2-AFB925B4F235}" destId="{4739358B-3287-4C11-8CD3-C27466B7EE2A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{FD5BB513-60BE-4BEB-8236-A9A6579561AB}" type="presOf" srcId="{55159D8C-2B4A-41DE-9414-FFD423A02BFC}" destId="{BD0D69DF-C381-4750-B5B5-FBC72D11641A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{3BD25315-072B-41C6-8BA6-4B631B840C8E}" type="presOf" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{2F617C8C-E497-4C82-A5E3-B207B6A80718}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{EE1EB31A-4534-4C55-96D2-6B5722E20B73}" srcId="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}" destId="{50D9A437-ECC0-44A0-BC2D-F6038DB13C70}" srcOrd="0" destOrd="0" parTransId="{6E3324DF-5EEC-41CB-88D2-3FF47FF29D84}" sibTransId="{FCB1854A-8C53-40CF-8EC1-C4B8A939F42B}"/>
     <dgm:cxn modelId="{0320C725-49FA-4C1B-8DCC-3BD23CF61333}" type="presOf" srcId="{CC4960BD-C666-4AC7-99E1-48D42476C162}" destId="{928D2FA1-AA64-4B72-81C9-0B3AC0841CAB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{F2431326-2A0C-4C4F-AC1F-EB5AAA3B4C48}" type="presOf" srcId="{F8362600-2B5C-44DF-AC81-D1FB53879996}" destId="{ECEFD72E-1A98-4AF9-85ED-9B48C5F1C2DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{50D30A2A-3FAD-4E9B-B428-42B261EBAB95}" type="presOf" srcId="{4D9CFF37-AF00-4799-A9FC-B6F434F1BB17}" destId="{48998B4E-27F8-44EE-8690-1D8DEF26389F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{E945212C-3B0E-4C9D-82BC-E61E125A39FC}" type="presOf" srcId="{AD586799-4B48-4CE3-BF36-278A0A6ABFDF}" destId="{E746D0F2-3E36-483D-B695-567907677C18}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{83C1A92D-D918-4313-8579-BEE3A2F8FDC2}" type="presOf" srcId="{774072D0-931C-49F4-9067-EE0F12F706A5}" destId="{A75D6516-48A3-4FAB-96AE-57D7C936C49C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{29CDA52E-C429-4B55-A61F-EE03A923B56A}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{774072D0-931C-49F4-9067-EE0F12F706A5}" srcOrd="0" destOrd="0" parTransId="{07011309-74CE-4D91-A9E5-8726B3BDA4E4}" sibTransId="{C11254D7-0BF0-4E95-92C4-9DED911BDBD5}"/>
     <dgm:cxn modelId="{8849D231-624A-4717-AD2C-A5AAEF39B751}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{60EE2A07-C51D-48C8-8929-C93A64AB8387}" srcOrd="1" destOrd="0" parTransId="{465B3217-C6AF-4BDB-B88A-0647A76C0B38}" sibTransId="{A01DE0E3-355C-42AD-B0F7-D5452F1DF6B5}"/>
+    <dgm:cxn modelId="{ECC54833-5732-4D4F-8EB7-AD64BE76EF6B}" type="presOf" srcId="{6E3324DF-5EEC-41CB-88D2-3FF47FF29D84}" destId="{CB0AA845-0864-43CB-A7EE-E121D705DD81}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{32C39D33-09A7-4685-A7B7-CF1E1765DBC0}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{1DD8FAED-C655-47B8-B424-497E2EE3C199}" srcOrd="2" destOrd="0" parTransId="{012004B0-C49A-4F0A-91D2-AFB925B4F235}" sibTransId="{D72E5133-B1A9-4EB2-9191-7310F34A5730}"/>
+    <dgm:cxn modelId="{5102055C-FEBC-4D17-8D18-86473E9709B8}" type="presOf" srcId="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" destId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{9F41F160-A227-4DD2-BFB9-A055EBC859BB}" srcId="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" destId="{AD586799-4B48-4CE3-BF36-278A0A6ABFDF}" srcOrd="3" destOrd="0" parTransId="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" sibTransId="{E8EB4B71-DB3F-4B08-A795-9E486CABF34B}"/>
     <dgm:cxn modelId="{10C37B63-ED5D-4AB7-9DCE-3108733509ED}" type="presOf" srcId="{63D6B117-ACA3-447B-A1EA-540F51377766}" destId="{27A405A8-D3E3-42BA-AEC5-1CCA5114A729}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{202A1B45-13E6-499E-B6D8-10F9AEEC2981}" type="presOf" srcId="{465B3217-C6AF-4BDB-B88A-0647A76C0B38}" destId="{FD989055-DF30-47A4-936F-D6FE54FB1C16}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -1786,6 +4059,7 @@
     <dgm:cxn modelId="{A516656D-80D6-4867-9AF7-81ACE258EA7F}" srcId="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" destId="{5A7DAEE0-01A1-4D9D-8EFC-F32EFD0BB449}" srcOrd="1" destOrd="0" parTransId="{A16E41B2-5488-40AE-A0CF-FE736B205803}" sibTransId="{925106F7-2C49-48DE-B342-8BDA4ADA7906}"/>
     <dgm:cxn modelId="{E9F3F64D-B0FA-47E0-A619-6A0591B2D22A}" type="presOf" srcId="{5A7DAEE0-01A1-4D9D-8EFC-F32EFD0BB449}" destId="{BF2A56C9-9EEA-4DF3-80BE-1BF9131888D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{A9F0C77A-6D84-42E1-ACE2-8B002C262E35}" type="presOf" srcId="{5E2F1FB8-F258-4D56-AFCA-D1289C6DC632}" destId="{331195D8-EA2E-4292-B8CA-2085B689B10C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{14E3E97A-36BD-4385-A62E-BD8AA49FCB6A}" type="presOf" srcId="{0BE72C79-1DAD-452F-9FA1-7E2C1226D2A6}" destId="{09CF1D3D-01D5-40F8-BEA1-801347EF2FCB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{DE9D4A7F-BD36-403F-A551-EF8E9A800F0A}" type="presOf" srcId="{07011309-74CE-4D91-A9E5-8726B3BDA4E4}" destId="{FD0CB378-ADA7-49C3-82E0-E691B4DA503A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{6548D384-FA15-40C2-BCF6-5889D73CD40B}" type="presOf" srcId="{7AD76085-1EF7-4FA0-AAF7-94E906B86D38}" destId="{B67A0ECE-C1E5-4448-9B63-3D64385F3EAB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{C0673889-694F-445B-BD67-76E4D3CE2C00}" type="presOf" srcId="{3D3769D5-BA0C-4F40-AA99-6C329B9E0D49}" destId="{34F2B706-66E1-4261-B79A-DCC4C44B1628}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
@@ -1794,14 +4068,16 @@
     <dgm:cxn modelId="{8348A092-BC55-46CA-B907-2CD25FB5FCCF}" type="presOf" srcId="{24A54765-A882-4BC9-95BE-41A480195D90}" destId="{E730969C-2265-47C8-BF70-783712BC988C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{83A64894-CD1E-4786-A5EC-B3B0FBED593D}" type="presOf" srcId="{760C9A88-7FE2-4D6E-8362-70599A5E176B}" destId="{CF0423C4-6EA4-41F9-A046-4D99EB0124E5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{DF161D96-7B4B-4C62-92BC-1D4C824E6667}" type="presOf" srcId="{A16E41B2-5488-40AE-A0CF-FE736B205803}" destId="{90A8264F-505A-42CC-B284-E5BE45EDBCD9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{3482EA9C-DB35-45EC-87FD-B2739844AFD7}" type="presOf" srcId="{50D9A437-ECC0-44A0-BC2D-F6038DB13C70}" destId="{C108176B-E738-4704-AF28-F6528C67536F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{A41A389F-B947-4E3F-A317-E8FC035D0C7A}" type="presOf" srcId="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" destId="{9DDA283B-EA8E-405C-BD97-E44435EB9EFA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{EBC15AA0-7B33-496D-A1A6-D1A38EEE9ACC}" type="presOf" srcId="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" destId="{197AAD30-AF83-4EF0-85BB-82B74B47AD5D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{055A9DA1-BBDB-4A7F-BE9E-A1FD1636550A}" type="presOf" srcId="{60E9B284-392D-4326-989E-E26884CD887A}" destId="{8F325E4E-94E1-41F0-8A0B-871F31007CAB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{73BEC6A2-2A3A-44E4-AA31-729FB8A310B6}" type="presOf" srcId="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" destId="{197AAD30-AF83-4EF0-85BB-82B74B47AD5D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E92997A7-DE6E-4A66-A28B-A3C92C84FF49}" type="presOf" srcId="{4F8B6245-9BB5-4A7C-8F72-96357217B8C8}" destId="{D8A48346-CB8B-4E62-9DF1-AFFBDD643CA3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{0CC122AD-5BB7-4709-899E-FEEF0754E8BC}" type="presOf" srcId="{7AD76085-1EF7-4FA0-AAF7-94E906B86D38}" destId="{62FD03F3-0938-41E5-8A6B-A3DEC7E5C116}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{4588B7AE-EFA3-49FA-A0AB-2B25E39F0172}" type="presOf" srcId="{A4AB7E66-835E-4A75-9365-21D08A9C85AE}" destId="{C68D3D45-5D23-4C21-8B1A-8E986FE4B026}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{CEE48AB5-AF75-41F0-B0B2-0B5652716615}" srcId="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" destId="{971BD098-BABE-481C-B977-225E18976EE6}" srcOrd="2" destOrd="0" parTransId="{4D9CFF37-AF00-4799-A9FC-B6F434F1BB17}" sibTransId="{FF84429F-F610-45C1-AA1A-082A69BA7DB3}"/>
     <dgm:cxn modelId="{DEBD0EB7-FFD3-4E9D-AB76-E1BEB07124B7}" type="presOf" srcId="{012004B0-C49A-4F0A-91D2-AFB925B4F235}" destId="{80B136B6-8FDF-434D-9D8F-8BC11A3BD369}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4B26CABA-C9F3-41E3-80A5-F83C984D62F5}" type="presOf" srcId="{6E3324DF-5EEC-41CB-88D2-3FF47FF29D84}" destId="{2AFEE7C1-EF54-48D3-9619-231B57DFCA60}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{C6AE56C2-1CB3-4D35-AB39-09CBD931D518}" type="presOf" srcId="{760C9A88-7FE2-4D6E-8362-70599A5E176B}" destId="{A34C8EF8-5430-4305-B966-B2F00A8211FB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{EAD357C2-AF30-4EB8-B092-390A6BD9AD12}" type="presOf" srcId="{7353AFA1-15F3-4F00-9FA2-75575716ADEE}" destId="{3A2AB094-DEA9-483B-AF68-D6ADFFAB19D9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{2A38C0C4-6E9D-4ABA-8675-730EF7AEF33B}" srcId="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" destId="{F8362600-2B5C-44DF-AC81-D1FB53879996}" srcOrd="0" destOrd="0" parTransId="{760C9A88-7FE2-4D6E-8362-70599A5E176B}" sibTransId="{38CCA815-07A4-45DE-A70D-FC3338C83026}"/>
@@ -1813,7 +4089,6 @@
     <dgm:cxn modelId="{353ED9E3-897D-4765-8B62-0488F4CA73D6}" type="presOf" srcId="{60E9B284-392D-4326-989E-E26884CD887A}" destId="{895EE1D3-11B0-46AC-89E1-3C8C71E5E752}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{8CCEBEE4-52B9-4301-A478-8C943BD745B2}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{A4AB7E66-835E-4A75-9365-21D08A9C85AE}" srcOrd="6" destOrd="0" parTransId="{63D6B117-ACA3-447B-A1EA-540F51377766}" sibTransId="{49FAB0F9-76E5-4465-8DFD-DB12FB45FB13}"/>
     <dgm:cxn modelId="{C0E158EC-051E-4C16-BFA8-9998598CBF8C}" type="presOf" srcId="{63D6B117-ACA3-447B-A1EA-540F51377766}" destId="{CD5258AE-490E-4C9F-9FE1-E4564DF87772}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{B1805DED-A040-4C6C-85A0-F8F8DC30E74B}" type="presOf" srcId="{EC0D6EC5-55CD-4E41-9790-FB4ED4EED3D1}" destId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E4100EF6-71B4-44BF-9E2F-9E376B6FF0DA}" type="presOf" srcId="{24A54765-A882-4BC9-95BE-41A480195D90}" destId="{CFD06B68-70DA-440A-A7FD-E75A3D5E9B7B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{8C0844F6-2DA5-4251-828E-FD32A0350102}" srcId="{5BD5A007-4170-4FB3-A8C3-22EB29DC314F}" destId="{CC4960BD-C666-4AC7-99E1-48D42476C162}" srcOrd="3" destOrd="0" parTransId="{F129DEAC-BED3-416E-BC5D-C9CBCA0F4740}" sibTransId="{E8120E06-B302-4D7E-8778-593685A416F5}"/>
     <dgm:cxn modelId="{7B5E16F8-7DE9-4A56-9FD8-31AB25CB2632}" srcId="{5E2F1FB8-F258-4D56-AFCA-D1289C6DC632}" destId="{4DA42A17-A683-4348-93C6-6252E1A6B2E2}" srcOrd="0" destOrd="0" parTransId="{A8BF68BA-5F45-4D67-ACC1-D1A50F28C9DF}" sibTransId="{9003DE60-34A3-4175-B0B0-22D24D663CD2}"/>
@@ -1889,17 +4164,25 @@
     <dgm:cxn modelId="{8EEDC61A-905B-45A7-84A2-FB05EA76806A}" type="presParOf" srcId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" destId="{DA54BAB1-A435-4108-A6D5-DEB2F5934B3C}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{FCFEBEB2-3C35-4CCF-A6DB-1AD17CA0A17E}" type="presParOf" srcId="{DA54BAB1-A435-4108-A6D5-DEB2F5934B3C}" destId="{6BF5A490-81CF-40B7-AA26-93E8BD2FCD0A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
     <dgm:cxn modelId="{E26EE6B8-517B-4290-A615-D00E4323CFD3}" type="presParOf" srcId="{DA54BAB1-A435-4108-A6D5-DEB2F5934B3C}" destId="{ABD0DA10-5C5C-43F7-B344-39938BEDFE07}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{67D7C4FC-AD82-40B0-BE4E-1DC69D66C135}" type="presParOf" srcId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" destId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{E4DA0EB0-E9B9-474A-8997-A1B3284B76FC}" type="presParOf" srcId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}" destId="{197AAD30-AF83-4EF0-85BB-82B74B47AD5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{656B2C54-1726-47F1-8F16-C81EB99A7A75}" type="presParOf" srcId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" destId="{24E6EB68-1BC0-40BF-BB7C-725CEFD49232}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{0AED95FD-32DC-4D17-BC7D-4D9D4E8E0EEE}" type="presParOf" srcId="{24E6EB68-1BC0-40BF-BB7C-725CEFD49232}" destId="{E746D0F2-3E36-483D-B695-567907677C18}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
-    <dgm:cxn modelId="{56BF936C-BFFD-4868-A586-2C332A0147B4}" type="presParOf" srcId="{24E6EB68-1BC0-40BF-BB7C-725CEFD49232}" destId="{CDD74AEF-7834-416A-801E-D9AB50BD76C6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{02C8F247-F0A5-4F74-BE56-D7CADD88ADD3}" type="presParOf" srcId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" destId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{4B5A8738-338D-41F2-B23C-EA95AED933B4}" type="presParOf" srcId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}" destId="{197AAD30-AF83-4EF0-85BB-82B74B47AD5D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6F2DDDAA-B1D2-4065-9BA8-D6180497100F}" type="presParOf" srcId="{84EE9B89-FF57-49E0-AC4D-EA57BCA9007E}" destId="{24E6EB68-1BC0-40BF-BB7C-725CEFD49232}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{B355E711-D2C1-43B1-8121-D70919DD956A}" type="presParOf" srcId="{24E6EB68-1BC0-40BF-BB7C-725CEFD49232}" destId="{E746D0F2-3E36-483D-B695-567907677C18}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D08EBA4E-4DA6-43C4-9DE9-D90352778053}" type="presParOf" srcId="{24E6EB68-1BC0-40BF-BB7C-725CEFD49232}" destId="{CDD74AEF-7834-416A-801E-D9AB50BD76C6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6283655D-0BB1-4A74-8A4B-A3DA4FB1433D}" type="presParOf" srcId="{331195D8-EA2E-4292-B8CA-2085B689B10C}" destId="{E5C7F18F-410B-4745-9D47-29DDA5E34F22}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CA3972BB-265E-4A33-9283-0523138F84EB}" type="presParOf" srcId="{E5C7F18F-410B-4745-9D47-29DDA5E34F22}" destId="{09CF1D3D-01D5-40F8-BEA1-801347EF2FCB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{D382E696-555E-45A1-9CFF-EA9401908ECB}" type="presParOf" srcId="{E5C7F18F-410B-4745-9D47-29DDA5E34F22}" destId="{AE5A4F71-F63E-45FD-A6DC-F422E6F5291F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{2C5A6B5F-5337-4B42-B585-90F69A063756}" type="presParOf" srcId="{AE5A4F71-F63E-45FD-A6DC-F422E6F5291F}" destId="{2AFEE7C1-EF54-48D3-9619-231B57DFCA60}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{C53EE6DB-4CA1-4792-84D4-88A55E60D429}" type="presParOf" srcId="{2AFEE7C1-EF54-48D3-9619-231B57DFCA60}" destId="{CB0AA845-0864-43CB-A7EE-E121D705DD81}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{CEF1B9E2-406C-40B1-8EB7-7237AD522B3D}" type="presParOf" srcId="{AE5A4F71-F63E-45FD-A6DC-F422E6F5291F}" destId="{FAA56CAA-09CE-41A7-A0AB-5153005983A9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{6D6D4E03-D113-49E1-B48E-C71D3C31E3C2}" type="presParOf" srcId="{FAA56CAA-09CE-41A7-A0AB-5153005983A9}" destId="{C108176B-E738-4704-AF28-F6528C67536F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
+    <dgm:cxn modelId="{0ADEB050-5684-44F1-B209-23033E6D630E}" type="presParOf" srcId="{FAA56CAA-09CE-41A7-A0AB-5153005983A9}" destId="{107C48B9-DCD1-4582-AE16-86EFFA7F9C0B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2"/>
   </dgm:cxnLst>
   <dgm:bg/>
   <dgm:whole/>
   <dgm:extLst>
     <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
-      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId10" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
     </a:ext>
   </dgm:extLst>
 </dgm:dataModel>
@@ -1920,8 +4203,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="838003" y="1040134"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="1227455" y="935258"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1965,12 +4248,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1983,14 +4266,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
             <a:t>input UI</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="846152" y="1048283"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="1233408" y="941211"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CF0423C4-6EA4-41F9-A046-4D99EB0124E5}">
@@ -1999,9 +4282,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16924900">
-          <a:off x="974036" y="650482"/>
-          <a:ext cx="1063446" cy="17644"/>
+        <a:xfrm rot="16791948">
+          <a:off x="1240762" y="562828"/>
+          <a:ext cx="948953" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2012,10 +4295,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1063446" y="8822"/>
+                <a:pt x="948953" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2070,8 +4353,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1479174" y="632718"/>
-        <a:ext cx="53172" cy="53172"/>
+        <a:off x="1691515" y="545696"/>
+        <a:ext cx="47447" cy="47447"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ECEFD72E-1A98-4AF9-85ED-9B48C5F1C2DA}">
@@ -2081,8 +4364,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1617053" y="242"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="1796536" y="338"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2126,12 +4409,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2144,14 +4427,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
-            <a:t>txt fields</a:t>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
+            <a:t>8 x txt fields</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1625202" y="8391"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="1802489" y="6291"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{3A2AB094-DEA9-483B-AF68-D6ADFFAB19D9}">
@@ -2161,8 +4444,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2173516" y="130536"/>
-          <a:ext cx="222585" cy="17644"/>
+          <a:off x="2203023" y="95368"/>
+          <a:ext cx="162594" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2173,10 +4456,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="222585" y="8822"/>
+                <a:pt x="162594" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2231,8 +4514,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2279244" y="133793"/>
-        <a:ext cx="11129" cy="11129"/>
+        <a:off x="2280256" y="97895"/>
+        <a:ext cx="8129" cy="8129"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F65D3CFB-6315-4F9C-A94B-A1BD647B8A96}">
@@ -2242,8 +4525,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2396102" y="242"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="2365618" y="338"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2287,12 +4570,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2305,14 +4588,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
             <a:t>extraction m</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2404251" y="8391"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="2371571" y="6291"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B9967B85-1A92-4A41-BDE3-09E17DA221DB}">
@@ -2321,9 +4604,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3654187">
-          <a:off x="1276898" y="1370407"/>
-          <a:ext cx="457723" cy="17644"/>
+        <a:xfrm rot="4249260">
+          <a:off x="1467774" y="1264018"/>
+          <a:ext cx="494930" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2334,10 +4617,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="457723" y="8822"/>
+                <a:pt x="494930" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2392,8 +4675,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1494317" y="1367786"/>
-        <a:ext cx="22886" cy="22886"/>
+        <a:off x="1702866" y="1258236"/>
+        <a:ext cx="24746" cy="24746"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BF2A56C9-9EEA-4DF3-80BE-1BF9131888D0}">
@@ -2403,8 +4686,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1617053" y="1440092"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="1796536" y="1402718"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2448,12 +4731,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2466,14 +4749,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
             <a:t>calculate btn</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1625202" y="1448241"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="1802489" y="1408671"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8F325E4E-94E1-41F0-8A0B-871F31007CAB}">
@@ -2483,8 +4766,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2173516" y="1570386"/>
-          <a:ext cx="222585" cy="17644"/>
+          <a:off x="2203023" y="1497748"/>
+          <a:ext cx="162594" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2495,10 +4778,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="222585" y="8822"/>
+                <a:pt x="162594" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2553,8 +4836,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2279244" y="1573643"/>
-        <a:ext cx="11129" cy="11129"/>
+        <a:off x="2280256" y="1500275"/>
+        <a:ext cx="8129" cy="8129"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{2F617C8C-E497-4C82-A5E3-B207B6A80718}">
@@ -2564,8 +4847,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2396102" y="1440092"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="2365618" y="1402718"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2609,12 +4892,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2627,14 +4910,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
             <a:t>processing m</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2404251" y="1448241"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="2371571" y="1408671"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FD0CB378-ADA7-49C3-82E0-E691B4DA503A}">
@@ -2643,9 +4926,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="16874489">
-          <a:off x="2492964" y="1010444"/>
-          <a:ext cx="1141789" cy="17644"/>
+        <a:xfrm rot="16675244">
+          <a:off x="2263449" y="913423"/>
+          <a:ext cx="1179906" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2656,10 +4939,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1141789" y="8822"/>
+                <a:pt x="1179906" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2714,8 +4997,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3035313" y="990721"/>
-        <a:ext cx="57089" cy="57089"/>
+        <a:off x="2823904" y="890517"/>
+        <a:ext cx="58995" cy="58995"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A75D6516-48A3-4FAB-96AE-57D7C936C49C}">
@@ -2725,8 +5008,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3175151" y="320209"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="2934699" y="234068"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2770,12 +5053,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2788,14 +5071,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
             <a:t>Vs m</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3183300" y="328358"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="2940652" y="240021"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0BDE80F7-B911-4899-B224-784C65367BED}">
@@ -2804,9 +5087,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17132988">
-          <a:off x="2648704" y="1170428"/>
-          <a:ext cx="830307" cy="17644"/>
+        <a:xfrm rot="16791948">
+          <a:off x="2378926" y="1030288"/>
+          <a:ext cx="948953" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2817,10 +5100,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="830307" y="8822"/>
+                <a:pt x="948953" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2875,8 +5158,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3043101" y="1158492"/>
-        <a:ext cx="41515" cy="41515"/>
+        <a:off x="2829678" y="1013156"/>
+        <a:ext cx="47447" cy="47447"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{956AC369-2A6E-4E5C-95B1-CAB1BF8A9609}">
@@ -2886,8 +5169,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3175151" y="640175"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="2934699" y="467798"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2931,12 +5214,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2949,14 +5232,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
             <a:t>Vc m</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3183300" y="648324"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="2940652" y="473751"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4739358B-3287-4C11-8CD3-C27466B7EE2A}">
@@ -2965,9 +5248,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="17692822">
-          <a:off x="2799332" y="1330411"/>
-          <a:ext cx="529052" cy="17644"/>
+        <a:xfrm rot="16983315">
+          <a:off x="2493505" y="1147153"/>
+          <a:ext cx="719794" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2978,10 +5261,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="529052" y="8822"/>
+                <a:pt x="719794" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3036,8 +5319,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3050632" y="1326007"/>
-        <a:ext cx="26452" cy="26452"/>
+        <a:off x="2835407" y="1135750"/>
+        <a:ext cx="35989" cy="35989"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{FD0EC4D4-D97A-4B61-81E5-1C3DE85F8363}">
@@ -3047,8 +5330,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3175151" y="960142"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="2934699" y="701528"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3092,12 +5375,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3110,14 +5393,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
             <a:t>Vr m</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3183300" y="968291"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="2940652" y="707481"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{430244D7-2332-4438-A1DB-8D338C935A93}">
@@ -3126,9 +5409,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="19457599">
-          <a:off x="2926801" y="1490394"/>
-          <a:ext cx="274114" cy="17644"/>
+        <a:xfrm rot="17350740">
+          <a:off x="2605937" y="1264018"/>
+          <a:ext cx="494930" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3139,10 +5422,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="274114" y="8822"/>
+                <a:pt x="494930" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3197,8 +5480,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3057005" y="1492363"/>
-        <a:ext cx="13705" cy="13705"/>
+        <a:off x="2841029" y="1258236"/>
+        <a:ext cx="24746" cy="24746"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{928D2FA1-AA64-4B72-81C9-0B3AC0841CAB}">
@@ -3208,8 +5491,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3175151" y="1280109"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="2934699" y="935258"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3253,12 +5536,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3271,14 +5554,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
             <a:t>Xc m</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3183300" y="1288258"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="2940652" y="941211"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CFD06B68-70DA-440A-A7FD-E75A3D5E9B7B}">
@@ -3287,9 +5570,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="2142401">
-          <a:off x="2926801" y="1650377"/>
-          <a:ext cx="274114" cy="17644"/>
+        <a:xfrm rot="18289469">
+          <a:off x="2711041" y="1380883"/>
+          <a:ext cx="284722" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3300,10 +5583,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="274114" y="8822"/>
+                <a:pt x="284722" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3358,8 +5641,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3057005" y="1652347"/>
-        <a:ext cx="13705" cy="13705"/>
+        <a:off x="2846284" y="1380356"/>
+        <a:ext cx="14236" cy="14236"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4BED9D2E-3146-42D2-8C49-ACA43DAC751A}">
@@ -3369,8 +5652,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3175151" y="1600075"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="2934699" y="1168988"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3414,12 +5697,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3432,22 +5715,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
-            <a:t>X</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="300" kern="1200"/>
-            <a:t>L </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
-            <a:t>m</a:t>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
+            <a:t>XL m</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3183300" y="1608224"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="2940652" y="1174941"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B67A0ECE-C1E5-4448-9B63-3D64385F3EAB}">
@@ -3456,9 +5731,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="3907178">
-          <a:off x="2799332" y="1810361"/>
-          <a:ext cx="529052" cy="17644"/>
+        <a:xfrm>
+          <a:off x="2772105" y="1497748"/>
+          <a:ext cx="162594" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3469,10 +5744,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="529052" y="8822"/>
+                <a:pt x="162594" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3527,8 +5802,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3050632" y="1805956"/>
-        <a:ext cx="26452" cy="26452"/>
+        <a:off x="2849337" y="1500275"/>
+        <a:ext cx="8129" cy="8129"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D8A48346-CB8B-4E62-9DF1-AFFBDD643CA3}">
@@ -3538,8 +5813,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3175151" y="1920042"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="2934699" y="1402718"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3583,12 +5858,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3601,14 +5876,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
             <a:t>Z m</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3183300" y="1928191"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="2940652" y="1408671"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CD5258AE-490E-4C9F-9FE1-E4564DF87772}">
@@ -3617,9 +5892,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4467012">
-          <a:off x="2648704" y="1970344"/>
-          <a:ext cx="830307" cy="17644"/>
+        <a:xfrm rot="3310531">
+          <a:off x="2711041" y="1614613"/>
+          <a:ext cx="284722" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3630,10 +5905,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="830307" y="8822"/>
+                <a:pt x="284722" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3688,8 +5963,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3043101" y="1958408"/>
-        <a:ext cx="41515" cy="41515"/>
+        <a:off x="2846284" y="1614086"/>
+        <a:ext cx="14236" cy="14236"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C68D3D45-5D23-4C21-8B1A-8E986FE4B026}">
@@ -3699,8 +5974,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3175151" y="2240008"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="2934699" y="1636448"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3744,12 +6019,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3762,14 +6037,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
             <a:t>R m</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3183300" y="2248157"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="2940652" y="1642401"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{BD0D69DF-C381-4750-B5B5-FBC72D11641A}">
@@ -3778,9 +6053,9 @@
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4725511">
-          <a:off x="2492964" y="2130327"/>
-          <a:ext cx="1141789" cy="17644"/>
+        <a:xfrm rot="4249260">
+          <a:off x="2605937" y="1731478"/>
+          <a:ext cx="494930" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3791,10 +6066,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1141789" y="8822"/>
+                <a:pt x="494930" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3849,8 +6124,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3035313" y="2110605"/>
-        <a:ext cx="57089" cy="57089"/>
+        <a:off x="2841029" y="1725696"/>
+        <a:ext cx="24746" cy="24746"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{34F2B706-66E1-4261-B79A-DCC4C44B1628}">
@@ -3860,8 +6135,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3175151" y="2559975"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="2934699" y="1870178"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3905,12 +6180,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3923,30 +6198,30 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="el-GR" sz="800" b="0" i="0" kern="1200"/>
+            <a:rPr lang="el-GR" sz="600" b="0" i="0" kern="1200"/>
             <a:t>θ</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" b="0" i="0" kern="1200"/>
+            <a:rPr lang="en-GB" sz="600" b="0" i="0" kern="1200"/>
             <a:t> m</a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="800" b="0" kern="1200"/>
+          <a:endParaRPr lang="en-GB" sz="600" b="0" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3183300" y="2568124"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="2940652" y="1876131"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{48998B4E-27F8-44EE-8690-1D8DEF26389F}">
+    <dsp:sp modelId="{AC6C9236-E66E-4102-ABE3-547329D6A2B9}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4369170">
-          <a:off x="1128985" y="1530390"/>
-          <a:ext cx="753549" cy="17644"/>
+        <a:xfrm rot="4616685">
+          <a:off x="2493505" y="1848343"/>
+          <a:ext cx="719794" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3957,10 +6232,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="753549" y="8822"/>
+                <a:pt x="719794" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3969,7 +6244,7 @@
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -4015,19 +6290,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1486921" y="1520373"/>
-        <a:ext cx="37677" cy="37677"/>
+        <a:off x="2835407" y="1836939"/>
+        <a:ext cx="35989" cy="35989"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{6BF5A490-81CF-40B7-AA26-93E8BD2FCD0A}">
+    <dsp:sp modelId="{750598CE-BC27-458B-92A4-2D17B544DE63}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1617053" y="1760059"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="2934699" y="2103908"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4071,12 +6346,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4089,25 +6364,29 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="800" kern="1200"/>
-            <a:t>desc tags</a:t>
+            <a:rPr lang="en-GB" sz="600" b="0" i="0" kern="1200"/>
+            <a:t>f </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600" b="0" kern="1200"/>
+            <a:t>m</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1625202" y="1768208"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="2940652" y="2109861"/>
+        <a:ext cx="394580" cy="191337"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}">
+    <dsp:sp modelId="{AB4D3431-6B25-4D2F-8546-DE62B2BBA405}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
-        <a:xfrm rot="4675100">
-          <a:off x="974036" y="1690373"/>
-          <a:ext cx="1063446" cy="17644"/>
+        <a:xfrm rot="4808052">
+          <a:off x="2378926" y="1965208"/>
+          <a:ext cx="948953" cy="13183"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4118,10 +6397,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="8822"/>
+                <a:pt x="0" y="6591"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1063446" y="8822"/>
+                <a:pt x="948953" y="6591"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -4130,7 +6409,7 @@
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
+              <a:shade val="80000"/>
               <a:hueOff val="0"/>
               <a:satOff val="0"/>
               <a:lumOff val="0"/>
@@ -4176,19 +6455,19 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1479174" y="1672609"/>
-        <a:ext cx="53172" cy="53172"/>
+        <a:off x="2829678" y="1948075"/>
+        <a:ext cx="47447" cy="47447"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{E746D0F2-3E36-483D-B695-567907677C18}">
+    <dsp:sp modelId="{C25F03EC-7C91-40EA-A091-293C245140A3}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1617053" y="2080025"/>
-          <a:ext cx="556463" cy="278231"/>
+          <a:off x="2934699" y="2337637"/>
+          <a:ext cx="406486" cy="203243"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4232,6 +6511,3089 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600" b="0" kern="1200"/>
+            <a:t>L m</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2940652" y="2343590"/>
+        <a:ext cx="394580" cy="191337"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CCC0EF18-43BD-4634-BCA3-8467968FA7AC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4924756">
+          <a:off x="2263449" y="2082072"/>
+          <a:ext cx="1179906" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1179906" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2823904" y="2059167"/>
+        <a:ext cx="58995" cy="58995"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{83C329AA-6184-4F18-A2BB-F27EE589843C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2934699" y="2571367"/>
+          <a:ext cx="406486" cy="203243"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600" b="0" kern="1200"/>
+            <a:t>C m</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2940652" y="2577320"/>
+        <a:ext cx="394580" cy="191337"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{099D3634-B318-4F46-AE83-B08EE3684A62}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4616685">
+          <a:off x="1355342" y="1380883"/>
+          <a:ext cx="719794" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="719794" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1697244" y="1369480"/>
+        <a:ext cx="35989" cy="35989"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{78E7DD40-6DD8-4A4B-8D8E-B14BD272B53E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1796536" y="1636448"/>
+          <a:ext cx="406486" cy="203243"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
+            <a:t>desc tags</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1802489" y="1642401"/>
+        <a:ext cx="394580" cy="191337"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3135192">
+          <a:off x="1403768" y="1499579"/>
+          <a:ext cx="1186991" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1186991" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1967589" y="1476496"/>
+        <a:ext cx="59349" cy="59349"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E746D0F2-3E36-483D-B695-567907677C18}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2360586" y="1873840"/>
+          <a:ext cx="406486" cy="203243"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
+            <a:t>msg box (invisible)</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2366539" y="1879793"/>
+        <a:ext cx="394580" cy="191337"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{09CF1D3D-01D5-40F8-BEA1-801347EF2FCB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1227455" y="2103908"/>
+          <a:ext cx="406486" cy="203243"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
+            <a:t>output UI</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1233408" y="2109861"/>
+        <a:ext cx="394580" cy="191337"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2AFEE7C1-EF54-48D3-9619-231B57DFCA60}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1633942" y="2198937"/>
+          <a:ext cx="162594" cy="13183"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="6591"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="162594" y="6591"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1711174" y="2201464"/>
+        <a:ext cx="8129" cy="8129"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C108176B-E738-4704-AF28-F6528C67536F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1796536" y="2103908"/>
+          <a:ext cx="406486" cy="203243"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="3810" tIns="3810" rIns="3810" bIns="3810" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="266700">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="600" kern="1200"/>
+            <a:t>phasor diagram</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1802489" y="2109861"/>
+        <a:ext cx="394580" cy="191337"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{9DDA283B-EA8E-405C-BD97-E44435EB9EFA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="870703" y="1016625"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>input UI</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="878668" y="1024590"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CF0423C4-6EA4-41F9-A046-4D99EB0124E5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="16924900">
+          <a:off x="1003661" y="635581"/>
+          <a:ext cx="1039411" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1039411" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1497382" y="618417"/>
+        <a:ext cx="51970" cy="51970"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{ECEFD72E-1A98-4AF9-85ED-9B48C5F1C2DA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1632145" y="237"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>8 x txt fields</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1640110" y="8202"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3A2AB094-DEA9-483B-AF68-D6ADFFAB19D9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2176032" y="127386"/>
+          <a:ext cx="217554" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="217554" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2279370" y="130769"/>
+        <a:ext cx="10877" cy="10877"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F65D3CFB-6315-4F9C-A94B-A1BD647B8A96}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2393586" y="237"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>extraction m</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2401551" y="8202"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B9967B85-1A92-4A41-BDE3-09E17DA221DB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3654187">
+          <a:off x="1299678" y="1339235"/>
+          <a:ext cx="447378" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="447378" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1512183" y="1336872"/>
+        <a:ext cx="22368" cy="22368"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{BF2A56C9-9EEA-4DF3-80BE-1BF9131888D0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1632145" y="1407544"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>calculate btn</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1640110" y="1415509"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{8F325E4E-94E1-41F0-8A0B-871F31007CAB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2176032" y="1534694"/>
+          <a:ext cx="217554" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="217554" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2279370" y="1538077"/>
+        <a:ext cx="10877" cy="10877"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2F617C8C-E497-4C82-A5E3-B207B6A80718}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2393586" y="1407544"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>processing m</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2401551" y="1415509"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{FD0CB378-ADA7-49C3-82E0-E691B4DA503A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="16874489">
+          <a:off x="2488259" y="987408"/>
+          <a:ext cx="1115983" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1115983" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3018351" y="968330"/>
+        <a:ext cx="55799" cy="55799"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A75D6516-48A3-4FAB-96AE-57D7C936C49C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3155028" y="312972"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>Vs m</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3162993" y="320937"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0BDE80F7-B911-4899-B224-784C65367BED}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="17132988">
+          <a:off x="2640480" y="1143775"/>
+          <a:ext cx="811541" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="811541" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3025962" y="1132309"/>
+        <a:ext cx="40577" cy="40577"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{956AC369-2A6E-4E5C-95B1-CAB1BF8A9609}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3155028" y="625707"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>Vc m</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3162993" y="633672"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4739358B-3287-4C11-8CD3-C27466B7EE2A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="17692822">
+          <a:off x="2787703" y="1300143"/>
+          <a:ext cx="517095" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="517095" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3033323" y="1296037"/>
+        <a:ext cx="25854" cy="25854"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{FD0EC4D4-D97A-4B61-81E5-1C3DE85F8363}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3155028" y="938442"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>Vr m</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3162993" y="946407"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{430244D7-2332-4438-A1DB-8D338C935A93}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="19457599">
+          <a:off x="2912291" y="1456510"/>
+          <a:ext cx="267919" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="267919" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3039553" y="1458634"/>
+        <a:ext cx="13395" cy="13395"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{928D2FA1-AA64-4B72-81C9-0B3AC0841CAB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3155028" y="1251177"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>Xc m</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3162993" y="1259142"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CFD06B68-70DA-440A-A7FD-E75A3D5E9B7B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="2142401">
+          <a:off x="2912291" y="1612878"/>
+          <a:ext cx="267919" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="267919" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3039553" y="1615002"/>
+        <a:ext cx="13395" cy="13395"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4BED9D2E-3146-42D2-8C49-ACA43DAC751A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3155028" y="1563912"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="300" kern="1200"/>
+            <a:t>L </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>m</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3162993" y="1571877"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B67A0ECE-C1E5-4448-9B63-3D64385F3EAB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="3907178">
+          <a:off x="2787703" y="1769245"/>
+          <a:ext cx="517095" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="517095" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3033323" y="1765140"/>
+        <a:ext cx="25854" cy="25854"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D8A48346-CB8B-4E62-9DF1-AFFBDD643CA3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3155028" y="1876647"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>Z m</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3162993" y="1884612"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CD5258AE-490E-4C9F-9FE1-E4564DF87772}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4467012">
+          <a:off x="2640480" y="1925613"/>
+          <a:ext cx="811541" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="811541" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3025962" y="1914146"/>
+        <a:ext cx="40577" cy="40577"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C68D3D45-5D23-4C21-8B1A-8E986FE4B026}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3155028" y="2189382"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>R m</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3162993" y="2197347"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{BD0D69DF-C381-4750-B5B5-FBC72D11641A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4725511">
+          <a:off x="2488259" y="2081980"/>
+          <a:ext cx="1115983" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1115983" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="80000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3018351" y="2062903"/>
+        <a:ext cx="55799" cy="55799"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{34F2B706-66E1-4261-B79A-DCC4C44B1628}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3155028" y="2502117"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="el-GR" sz="800" b="0" i="0" kern="1200"/>
+            <a:t>θ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" b="0" i="0" kern="1200"/>
+            <a:t> m</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="800" b="0" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3162993" y="2510082"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{48998B4E-27F8-44EE-8690-1D8DEF26389F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4369170">
+          <a:off x="1155108" y="1495602"/>
+          <a:ext cx="736518" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="736518" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1504954" y="1486011"/>
+        <a:ext cx="36825" cy="36825"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6BF5A490-81CF-40B7-AA26-93E8BD2FCD0A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1632145" y="1720279"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>desc tags</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1640110" y="1728244"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C58CE5B1-1D46-454F-A6E5-335597B999E9}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="4675100">
+          <a:off x="1003661" y="1651970"/>
+          <a:ext cx="1039411" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1039411" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1497382" y="1634806"/>
+        <a:ext cx="51970" cy="51970"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E746D0F2-3E36-483D-B695-567907677C18}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1632145" y="2033014"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
         <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
@@ -4256,8 +9618,249 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1625202" y="2088174"/>
-        <a:ext cx="540165" cy="261933"/>
+        <a:off x="1640110" y="2040979"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{09CF1D3D-01D5-40F8-BEA1-801347EF2FCB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="870703" y="2345749"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>output UI</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="878668" y="2353714"/>
+        <a:ext cx="527957" cy="256013"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{2AFEE7C1-EF54-48D3-9619-231B57DFCA60}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1414590" y="2472899"/>
+          <a:ext cx="217554" cy="17644"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="8822"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="217554" y="8822"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="0" rIns="12700" bIns="0" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="222250">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" sz="500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1517928" y="2476282"/>
+        <a:ext cx="10877" cy="10877"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C108176B-E738-4704-AF28-F6528C67536F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1632145" y="2345749"/>
+          <a:ext cx="543887" cy="271943"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="800" kern="1200"/>
+            <a:t>phasor diagram</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1640110" y="2353714"/>
+        <a:ext cx="527957" cy="256013"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -4265,6 +9868,326 @@
 </file>
 
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="5000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="3">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="31">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="14" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="211"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="311"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="2" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="3" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="24" srcId="21" destId="211" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="34" srcId="31" destId="311" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="l"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromT"/>
+          <dgm:param type="chAlign" val="r"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="h" for="des" ptType="node" refType="h"/>
+      <dgm:constr type="w" for="des" ptType="node" refType="h" refFor="des" refPtType="node" fact="2"/>
+      <dgm:constr type="sibSp" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level2hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sibSp" for="des" forName="level3hierChild" refType="h" refFor="des" refPtType="node" op="equ" fact="0.15"/>
+      <dgm:constr type="sp" for="des" forName="root1" refType="w" refFor="des" refPtType="node" fact="0.4"/>
+      <dgm:constr type="sp" for="des" forName="root2" refType="sp" refFor="des" refForName="root1" op="equ"/>
+      <dgm:constr type="primFontSz" for="des" ptType="node" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" op="equ" val="55"/>
+      <dgm:constr type="primFontSz" for="des" forName="connTx" refType="primFontSz" refFor="des" refPtType="node" op="lte" fact="0.8"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node">
+        <dgm:layoutNode name="root1">
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="lCtrCh"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name7">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="rCtrCh"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst/>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="LevelOneTextNode" styleLbl="node0">
+            <dgm:varLst>
+              <dgm:chPref val="3"/>
+            </dgm:varLst>
+            <dgm:alg type="tx"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+              <dgm:adjLst>
+                <dgm:adj idx="1" val="0.1"/>
+              </dgm:adjLst>
+            </dgm:shape>
+            <dgm:presOf axis="self"/>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+              <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="level2hierChild">
+            <dgm:choose name="Name8">
+              <dgm:if name="Name9" func="var" arg="dir" op="equ" val="norm">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="l"/>
+                </dgm:alg>
+              </dgm:if>
+              <dgm:else name="Name10">
+                <dgm:alg type="hierChild">
+                  <dgm:param type="linDir" val="fromT"/>
+                  <dgm:param type="chAlign" val="r"/>
+                </dgm:alg>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="repeat" axis="ch">
+              <dgm:forEach name="Name11" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="conn2-1">
+                  <dgm:choose name="Name12">
+                    <dgm:if name="Name13" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midR"/>
+                        <dgm:param type="endPts" val="midL"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name14">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="begPts" val="midL"/>
+                        <dgm:param type="endPts" val="midR"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="w" val="1"/>
+                    <dgm:constr type="h" val="5"/>
+                    <dgm:constr type="connDist"/>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                    <dgm:constr type="userA" for="ch" refType="connDist"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="connTx">
+                    <dgm:alg type="tx">
+                      <dgm:param type="autoTxRot" val="grav"/>
+                    </dgm:alg>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rect" r:blip="" hideGeom="1">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="userA"/>
+                      <dgm:constr type="w" refType="userA" fact="0.05"/>
+                      <dgm:constr type="h" refType="userA" fact="0.05"/>
+                      <dgm:constr type="lMarg" val="1"/>
+                      <dgm:constr type="rMarg" val="1"/>
+                      <dgm:constr type="tMarg"/>
+                      <dgm:constr type="bMarg"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="h" val="NaN" fact="0.25" max="NaN"/>
+                      <dgm:rule type="w" val="NaN" fact="0.8" max="NaN"/>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name15" axis="self" ptType="node">
+                <dgm:layoutNode name="root2">
+                  <dgm:choose name="Name16">
+                    <dgm:if name="Name17" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="lCtrCh"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name18">
+                      <dgm:alg type="hierRoot">
+                        <dgm:param type="hierAlign" val="rCtrCh"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf/>
+                  <dgm:constrLst/>
+                  <dgm:ruleLst/>
+                  <dgm:layoutNode name="LevelTwoTextNode">
+                    <dgm:varLst>
+                      <dgm:chPref val="3"/>
+                    </dgm:varLst>
+                    <dgm:alg type="tx"/>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                      <dgm:adjLst>
+                        <dgm:adj idx="1" val="0.1"/>
+                      </dgm:adjLst>
+                    </dgm:shape>
+                    <dgm:presOf axis="self"/>
+                    <dgm:constrLst>
+                      <dgm:constr type="tMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="bMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="lMarg" refType="primFontSz" fact="0.05"/>
+                      <dgm:constr type="rMarg" refType="primFontSz" fact="0.05"/>
+                    </dgm:constrLst>
+                    <dgm:ruleLst>
+                      <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                    </dgm:ruleLst>
+                  </dgm:layoutNode>
+                  <dgm:layoutNode name="level3hierChild">
+                    <dgm:choose name="Name19">
+                      <dgm:if name="Name20" func="var" arg="dir" op="equ" val="norm">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="l"/>
+                        </dgm:alg>
+                      </dgm:if>
+                      <dgm:else name="Name21">
+                        <dgm:alg type="hierChild">
+                          <dgm:param type="linDir" val="fromT"/>
+                          <dgm:param type="chAlign" val="r"/>
+                        </dgm:alg>
+                      </dgm:else>
+                    </dgm:choose>
+                    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+                      <dgm:adjLst/>
+                    </dgm:shape>
+                    <dgm:presOf/>
+                    <dgm:constrLst/>
+                    <dgm:ruleLst/>
+                    <dgm:forEach name="Name22" ref="repeat"/>
+                  </dgm:layoutNode>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy2">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -5618,20 +11541,1054 @@
 </dgm:styleDef>
 </file>
 
+<file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>113903</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:colOff>514442</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>416322</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>206284</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5651,6 +12608,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
           <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>302419</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166565</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F1B45C-D930-4754-8F72-4B0AD5253E37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId6" r:lo="rId7" r:qs="rId8" r:cs="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5956,14 +12949,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F408369B-3BE4-4673-A626-419B72DCD2BE}">
-  <dimension ref="A1"/>
+  <dimension ref="M2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="13:13" x14ac:dyDescent="0.35">
+      <c r="M12" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
